--- a/BLACK_SUNRISE_YCbCr/0_Degree_GLCM/R_resmat.xlsx
+++ b/BLACK_SUNRISE_YCbCr/0_Degree_GLCM/R_resmat.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -45,12 +45,16 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,12 +335,5619 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D400"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1">
+        <v>0.11169415699347399</v>
+      </c>
+      <c r="B1">
+        <v>0.90317122327761856</v>
+      </c>
+      <c r="C1">
+        <v>0.31424135396414166</v>
+      </c>
+      <c r="D1">
+        <v>0.94429770268460511</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0.037275010171013312</v>
+      </c>
+      <c r="B2">
+        <v>0.9367300940702955</v>
+      </c>
+      <c r="C2">
+        <v>0.59263240959032604</v>
+      </c>
+      <c r="D2">
+        <v>0.98136249491449346</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.067931735351836275</v>
+      </c>
+      <c r="B3">
+        <v>0.90870860301360656</v>
+      </c>
+      <c r="C3">
+        <v>0.54606507897519307</v>
+      </c>
+      <c r="D3">
+        <v>0.96627155172413781</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.066660839160839161</v>
+      </c>
+      <c r="B4">
+        <v>0.90252085043001196</v>
+      </c>
+      <c r="C4">
+        <v>0.56773459783223768</v>
+      </c>
+      <c r="D4">
+        <v>0.96682609057609037</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.071325152026521024</v>
+      </c>
+      <c r="B5">
+        <v>0.92574061423837994</v>
+      </c>
+      <c r="C5">
+        <v>0.48767386125845336</v>
+      </c>
+      <c r="D5">
+        <v>0.96447721848882151</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.088373280642975088</v>
+      </c>
+      <c r="B6">
+        <v>0.90081956503049265</v>
+      </c>
+      <c r="C6">
+        <v>0.51057103677876781</v>
+      </c>
+      <c r="D6">
+        <v>0.95654855085605905</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.06190200527948872</v>
+      </c>
+      <c r="B7">
+        <v>0.92871456687989595</v>
+      </c>
+      <c r="C7">
+        <v>0.49789466845829694</v>
+      </c>
+      <c r="D7">
+        <v>0.96915705707096444</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.045003849031236789</v>
+      </c>
+      <c r="B8">
+        <v>0.93571308677574161</v>
+      </c>
+      <c r="C8">
+        <v>0.58501998184256998</v>
+      </c>
+      <c r="D8">
+        <v>0.97751976016740572</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.11032763848009385</v>
+      </c>
+      <c r="B9">
+        <v>0.87634464731435491</v>
+      </c>
+      <c r="C9">
+        <v>0.50541283984509167</v>
+      </c>
+      <c r="D9">
+        <v>0.94720849838817966</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.097012400122254719</v>
+      </c>
+      <c r="B10">
+        <v>0.90729617793041595</v>
+      </c>
+      <c r="C10">
+        <v>0.45511485275966723</v>
+      </c>
+      <c r="D10">
+        <v>0.95239274512800343</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.073349184257326214</v>
+      </c>
+      <c r="B11">
+        <v>0.89420083320401889</v>
+      </c>
+      <c r="C11">
+        <v>0.5745990606566902</v>
+      </c>
+      <c r="D11">
+        <v>0.96393512075053489</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.078111299792450531</v>
+      </c>
+      <c r="B12">
+        <v>0.90826789500537097</v>
+      </c>
+      <c r="C12">
+        <v>0.51507956823139123</v>
+      </c>
+      <c r="D12">
+        <v>0.96113303144319029</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.038836741277863983</v>
+      </c>
+      <c r="B13">
+        <v>0.93346753719842268</v>
+      </c>
+      <c r="C13">
+        <v>0.61867612015445439</v>
+      </c>
+      <c r="D13">
+        <v>0.98060723375273329</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.054487140805464698</v>
+      </c>
+      <c r="B14">
+        <v>0.91985059964031846</v>
+      </c>
+      <c r="C14">
+        <v>0.57887109306766471</v>
+      </c>
+      <c r="D14">
+        <v>0.97284493336068911</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.061532824690719426</v>
+      </c>
+      <c r="B15">
+        <v>0.90377172782965365</v>
+      </c>
+      <c r="C15">
+        <v>0.58526713750587689</v>
+      </c>
+      <c r="D15">
+        <v>0.96936649568228517</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.047517271932660421</v>
+      </c>
+      <c r="B16">
+        <v>0.92956756698774234</v>
+      </c>
+      <c r="C16">
+        <v>0.55934967888552289</v>
+      </c>
+      <c r="D16">
+        <v>0.97625732884722072</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.032341079316304977</v>
+      </c>
+      <c r="B17">
+        <v>0.93578422888204493</v>
+      </c>
+      <c r="C17">
+        <v>0.65206065096048493</v>
+      </c>
+      <c r="D17">
+        <v>0.98382946034184737</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.049793343069595188</v>
+      </c>
+      <c r="B18">
+        <v>0.91017993652991558</v>
+      </c>
+      <c r="C18">
+        <v>0.63793340572758239</v>
+      </c>
+      <c r="D18">
+        <v>0.97520514558256888</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.071104345723517898</v>
+      </c>
+      <c r="B19">
+        <v>0.88469164900098596</v>
+      </c>
+      <c r="C19">
+        <v>0.58127152841446439</v>
+      </c>
+      <c r="D19">
+        <v>0.96479517911180468</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.034114167995746944</v>
+      </c>
+      <c r="B20">
+        <v>0.95065730085226274</v>
+      </c>
+      <c r="C20">
+        <v>0.55774472024008381</v>
+      </c>
+      <c r="D20">
+        <v>0.98294291600212658</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.11565623992260562</v>
+      </c>
+      <c r="B21">
+        <v>0.8326390140866563</v>
+      </c>
+      <c r="C21">
+        <v>0.54831313772802115</v>
+      </c>
+      <c r="D21">
+        <v>0.94347477516213407</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.18519708144975811</v>
+      </c>
+      <c r="B22">
+        <v>0.79858193054053261</v>
+      </c>
+      <c r="C22">
+        <v>0.39482738138626677</v>
+      </c>
+      <c r="D22">
+        <v>0.91172542099558518</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.091585772934811807</v>
+      </c>
+      <c r="B23">
+        <v>0.86095202591782005</v>
+      </c>
+      <c r="C23">
+        <v>0.55847681111945813</v>
+      </c>
+      <c r="D23">
+        <v>0.95455669382308683</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.11569223943974397</v>
+      </c>
+      <c r="B24">
+        <v>0.88814382392714253</v>
+      </c>
+      <c r="C24">
+        <v>0.3226465496162142</v>
+      </c>
+      <c r="D24">
+        <v>0.94220035702591098</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.031022851842482501</v>
+      </c>
+      <c r="B25">
+        <v>0.88548035449405105</v>
+      </c>
+      <c r="C25">
+        <v>0.76011375006069759</v>
+      </c>
+      <c r="D25">
+        <v>0.98448857407875878</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.090109208240258129</v>
+      </c>
+      <c r="B26">
+        <v>0.83653976574904809</v>
+      </c>
+      <c r="C26">
+        <v>0.62014731509413545</v>
+      </c>
+      <c r="D26">
+        <v>0.95574791097873757</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.098601022329835891</v>
+      </c>
+      <c r="B27">
+        <v>0.86221522201550227</v>
+      </c>
+      <c r="C27">
+        <v>0.51399618391830981</v>
+      </c>
+      <c r="D27">
+        <v>0.95113506796315517</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.074658425504229034</v>
+      </c>
+      <c r="B28">
+        <v>0.89076346118022298</v>
+      </c>
+      <c r="C28">
+        <v>0.43837492991077998</v>
+      </c>
+      <c r="D28">
+        <v>0.96267078724788535</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.12526096033402923</v>
+      </c>
+      <c r="B29">
+        <v>0.86085141120743214</v>
+      </c>
+      <c r="C29">
+        <v>0.4154089662967882</v>
+      </c>
+      <c r="D29">
+        <v>0.93772129053966224</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.15786338986238677</v>
+      </c>
+      <c r="B30">
+        <v>0.82216690303543638</v>
+      </c>
+      <c r="C30">
+        <v>0.46970711366698753</v>
+      </c>
+      <c r="D30">
+        <v>0.92552828368320039</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.095076548364648572</v>
+      </c>
+      <c r="B31">
+        <v>0.86866429198931938</v>
+      </c>
+      <c r="C31">
+        <v>0.53675827821144051</v>
+      </c>
+      <c r="D31">
+        <v>0.95289665970772441</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.16689931441616324</v>
+      </c>
+      <c r="B32">
+        <v>0.83098504263954798</v>
+      </c>
+      <c r="C32">
+        <v>0.38832839191891733</v>
+      </c>
+      <c r="D32">
+        <v>0.91937513480240696</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.11717045394071633</v>
+      </c>
+      <c r="B33">
+        <v>0.81752504845443308</v>
+      </c>
+      <c r="C33">
+        <v>0.52315294910759702</v>
+      </c>
+      <c r="D33">
+        <v>0.94266241522241734</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.026651995843266704</v>
+      </c>
+      <c r="B34">
+        <v>0.88937074414568873</v>
+      </c>
+      <c r="C34">
+        <v>0.78374825212248944</v>
+      </c>
+      <c r="D34">
+        <v>0.98667400207836675</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.077485072005619937</v>
+      </c>
+      <c r="B35">
+        <v>0.83607680307356858</v>
+      </c>
+      <c r="C35">
+        <v>0.64572855971172394</v>
+      </c>
+      <c r="D35">
+        <v>0.96165554384732466</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.069245882451300061</v>
+      </c>
+      <c r="B36">
+        <v>0.87244890377964779</v>
+      </c>
+      <c r="C36">
+        <v>0.598936151298467</v>
+      </c>
+      <c r="D36">
+        <v>0.96542582838670121</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.084300958582022079</v>
+      </c>
+      <c r="B37">
+        <v>0.8702964250827937</v>
+      </c>
+      <c r="C37">
+        <v>0.53175315713941729</v>
+      </c>
+      <c r="D37">
+        <v>0.95799421233496129</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.13058479062335412</v>
+      </c>
+      <c r="B38">
+        <v>0.82855022723740457</v>
+      </c>
+      <c r="C38">
+        <v>0.50389018078210346</v>
+      </c>
+      <c r="D38">
+        <v>0.93659300619813202</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.12553281338664765</v>
+      </c>
+      <c r="B39">
+        <v>0.80698019473604066</v>
+      </c>
+      <c r="C39">
+        <v>0.56009262974923735</v>
+      </c>
+      <c r="D39">
+        <v>0.93993285121694792</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.15788703541117938</v>
+      </c>
+      <c r="B40">
+        <v>0.80862914145102061</v>
+      </c>
+      <c r="C40">
+        <v>0.50429964916590087</v>
+      </c>
+      <c r="D40">
+        <v>0.92559847819724916</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.20959687970983287</v>
+      </c>
+      <c r="B41">
+        <v>0.83644303670398712</v>
+      </c>
+      <c r="C41">
+        <v>0.28401751108652085</v>
+      </c>
+      <c r="D41">
+        <v>0.89707859244660115</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.17062821294763439</v>
+      </c>
+      <c r="B42">
+        <v>0.85581400101395599</v>
+      </c>
+      <c r="C42">
+        <v>0.42772974420149634</v>
+      </c>
+      <c r="D42">
+        <v>0.91764071621503884</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.16002886002886002</v>
+      </c>
+      <c r="B43">
+        <v>0.88176268767776333</v>
+      </c>
+      <c r="C43">
+        <v>0.30669820923561997</v>
+      </c>
+      <c r="D43">
+        <v>0.92043827632062936</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.11887823665507542</v>
+      </c>
+      <c r="B44">
+        <v>0.89480413559833216</v>
+      </c>
+      <c r="C44">
+        <v>0.45484176474203492</v>
+      </c>
+      <c r="D44">
+        <v>0.94152806832823033</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.12029937524287806</v>
+      </c>
+      <c r="B45">
+        <v>0.9015509985232919</v>
+      </c>
+      <c r="C45">
+        <v>0.42494944413455782</v>
+      </c>
+      <c r="D45">
+        <v>0.94045532787293606</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.10032047566206793</v>
+      </c>
+      <c r="B46">
+        <v>0.90284356853989678</v>
+      </c>
+      <c r="C46">
+        <v>0.4828850857166691</v>
+      </c>
+      <c r="D46">
+        <v>0.94994465515052162</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.1040555003440104</v>
+      </c>
+      <c r="B47">
+        <v>0.90637086939538059</v>
+      </c>
+      <c r="C47">
+        <v>0.47220412860280903</v>
+      </c>
+      <c r="D47">
+        <v>0.94834429070152637</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.12148430272003946</v>
+      </c>
+      <c r="B48">
+        <v>0.89737665706401581</v>
+      </c>
+      <c r="C48">
+        <v>0.42332275216927184</v>
+      </c>
+      <c r="D48">
+        <v>0.93998482442073228</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.11758985659671792</v>
+      </c>
+      <c r="B49">
+        <v>0.90478771177800743</v>
+      </c>
+      <c r="C49">
+        <v>0.41785994167689805</v>
+      </c>
+      <c r="D49">
+        <v>0.9414499201460188</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.097790382919188526</v>
+      </c>
+      <c r="B50">
+        <v>0.90779483541684225</v>
+      </c>
+      <c r="C50">
+        <v>0.45916355145973425</v>
+      </c>
+      <c r="D50">
+        <v>0.95117070673276749</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.10219742025179579</v>
+      </c>
+      <c r="B51">
+        <v>0.89764463696548957</v>
+      </c>
+      <c r="C51">
+        <v>0.47143577317961322</v>
+      </c>
+      <c r="D51">
+        <v>0.94914330218068532</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.10790226870860431</v>
+      </c>
+      <c r="B52">
+        <v>0.89520823343366951</v>
+      </c>
+      <c r="C52">
+        <v>0.46744878316350602</v>
+      </c>
+      <c r="D52">
+        <v>0.94631859322084699</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.097252512620293108</v>
+      </c>
+      <c r="B53">
+        <v>0.89788945154234712</v>
+      </c>
+      <c r="C53">
+        <v>0.49358915992202651</v>
+      </c>
+      <c r="D53">
+        <v>0.95152625478503561</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.14992382762417605</v>
+      </c>
+      <c r="B54">
+        <v>0.88147395204680323</v>
+      </c>
+      <c r="C54">
+        <v>0.30470128163667676</v>
+      </c>
+      <c r="D54">
+        <v>0.92532970320426766</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.12589819665291363</v>
+      </c>
+      <c r="B55">
+        <v>0.88711492490804245</v>
+      </c>
+      <c r="C55">
+        <v>0.3350257948917662</v>
+      </c>
+      <c r="D55">
+        <v>0.9371230149532036</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.15638227513227515</v>
+      </c>
+      <c r="B56">
+        <v>0.87291090067750521</v>
+      </c>
+      <c r="C56">
+        <v>0.3165427960307351</v>
+      </c>
+      <c r="D56">
+        <v>0.92237715559474798</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.09309918699186992</v>
+      </c>
+      <c r="B57">
+        <v>0.90201062812201671</v>
+      </c>
+      <c r="C57">
+        <v>0.49466618703681675</v>
+      </c>
+      <c r="D57">
+        <v>0.95378428184281838</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.098389817295289922</v>
+      </c>
+      <c r="B58">
+        <v>0.89314428467399554</v>
+      </c>
+      <c r="C58">
+        <v>0.50230762069763923</v>
+      </c>
+      <c r="D58">
+        <v>0.95111692250995739</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.087096081012114218</v>
+      </c>
+      <c r="B59">
+        <v>0.90345879370324589</v>
+      </c>
+      <c r="C59">
+        <v>0.50847545088887292</v>
+      </c>
+      <c r="D59">
+        <v>0.9565862633968143</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.10555168218294167</v>
+      </c>
+      <c r="B60">
+        <v>0.89299536238054433</v>
+      </c>
+      <c r="C60">
+        <v>0.48663641611255637</v>
+      </c>
+      <c r="D60">
+        <v>0.9477801018013462</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.075109540915012041</v>
+      </c>
+      <c r="B61">
+        <v>0.90132250474946807</v>
+      </c>
+      <c r="C61">
+        <v>0.38022158577316756</v>
+      </c>
+      <c r="D61">
+        <v>0.96244522954249401</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.081142231651169086</v>
+      </c>
+      <c r="B62">
+        <v>0.87979952387515759</v>
+      </c>
+      <c r="C62">
+        <v>0.3945947137853224</v>
+      </c>
+      <c r="D62">
+        <v>0.95942888417441541</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.093340931660196802</v>
+      </c>
+      <c r="B63">
+        <v>0.87421035571668504</v>
+      </c>
+      <c r="C63">
+        <v>0.37571078495629673</v>
+      </c>
+      <c r="D63">
+        <v>0.95332953416990152</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.13602602977752037</v>
+      </c>
+      <c r="B64">
+        <v>0.85118194867705788</v>
+      </c>
+      <c r="C64">
+        <v>0.31146097230519965</v>
+      </c>
+      <c r="D64">
+        <v>0.93217626505248741</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.10347804357209386</v>
+      </c>
+      <c r="B65">
+        <v>0.86882264337134341</v>
+      </c>
+      <c r="C65">
+        <v>0.35740367723279404</v>
+      </c>
+      <c r="D65">
+        <v>0.94826097821395305</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.074576909227797958</v>
+      </c>
+      <c r="B66">
+        <v>0.90288902995866005</v>
+      </c>
+      <c r="C66">
+        <v>0.38516899745380623</v>
+      </c>
+      <c r="D66">
+        <v>0.96271154538610104</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.096189384979302184</v>
+      </c>
+      <c r="B67">
+        <v>0.88688376634171706</v>
+      </c>
+      <c r="C67">
+        <v>0.35033355270957317</v>
+      </c>
+      <c r="D67">
+        <v>0.95191938765452955</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.069799031159989533</v>
+      </c>
+      <c r="B68">
+        <v>0.90416858896614882</v>
+      </c>
+      <c r="C68">
+        <v>0.40294075078151975</v>
+      </c>
+      <c r="D68">
+        <v>0.96510048442000529</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.067553836114477489</v>
+      </c>
+      <c r="B69">
+        <v>0.91001554563554521</v>
+      </c>
+      <c r="C69">
+        <v>0.4036304241036226</v>
+      </c>
+      <c r="D69">
+        <v>0.9662230819427613</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.082035515991373376</v>
+      </c>
+      <c r="B70">
+        <v>0.88086045998476992</v>
+      </c>
+      <c r="C70">
+        <v>0.41310333215830203</v>
+      </c>
+      <c r="D70">
+        <v>0.95899141926306619</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.1063579361283809</v>
+      </c>
+      <c r="B71">
+        <v>0.87875589726716297</v>
+      </c>
+      <c r="C71">
+        <v>0.34112284713857061</v>
+      </c>
+      <c r="D71">
+        <v>0.94684228705032136</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.12015045612082853</v>
+      </c>
+      <c r="B72">
+        <v>0.85469672661598939</v>
+      </c>
+      <c r="C72">
+        <v>0.34248029420379744</v>
+      </c>
+      <c r="D72">
+        <v>0.94001363919123082</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.10699191611096158</v>
+      </c>
+      <c r="B73">
+        <v>0.88033241011041219</v>
+      </c>
+      <c r="C73">
+        <v>0.33337877894306495</v>
+      </c>
+      <c r="D73">
+        <v>0.94653394535649837</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.086627311148565672</v>
+      </c>
+      <c r="B74">
+        <v>0.88916737656588585</v>
+      </c>
+      <c r="C74">
+        <v>0.3716995588532056</v>
+      </c>
+      <c r="D74">
+        <v>0.95668916763361544</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.09983230798759482</v>
+      </c>
+      <c r="B75">
+        <v>0.87425947520877156</v>
+      </c>
+      <c r="C75">
+        <v>0.35501545238035814</v>
+      </c>
+      <c r="D75">
+        <v>0.95009731524414676</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.11378435051318839</v>
+      </c>
+      <c r="B76">
+        <v>0.87093481155505947</v>
+      </c>
+      <c r="C76">
+        <v>0.33416883219086901</v>
+      </c>
+      <c r="D76">
+        <v>0.9431599406491803</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.096984894919200093</v>
+      </c>
+      <c r="B77">
+        <v>0.88682073963100905</v>
+      </c>
+      <c r="C77">
+        <v>0.3486396221993438</v>
+      </c>
+      <c r="D77">
+        <v>0.95151058386305687</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.069128120311624464</v>
+      </c>
+      <c r="B78">
+        <v>0.90211006636615876</v>
+      </c>
+      <c r="C78">
+        <v>0.40326270083512811</v>
+      </c>
+      <c r="D78">
+        <v>0.96543593984418785</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.095824132008342527</v>
+      </c>
+      <c r="B79">
+        <v>0.87082596772980203</v>
+      </c>
+      <c r="C79">
+        <v>0.37075072852780544</v>
+      </c>
+      <c r="D79">
+        <v>0.95209815769026296</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.057613908872901673</v>
+      </c>
+      <c r="B80">
+        <v>0.91337945213461191</v>
+      </c>
+      <c r="C80">
+        <v>0.42548061976200857</v>
+      </c>
+      <c r="D80">
+        <v>0.97119304556354913</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.075109540915012041</v>
+      </c>
+      <c r="B81">
+        <v>0.90132250474946807</v>
+      </c>
+      <c r="C81">
+        <v>0.38022158577316756</v>
+      </c>
+      <c r="D81">
+        <v>0.96244522954249401</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.081142231651169086</v>
+      </c>
+      <c r="B82">
+        <v>0.87979952387515759</v>
+      </c>
+      <c r="C82">
+        <v>0.3945947137853224</v>
+      </c>
+      <c r="D82">
+        <v>0.95942888417441541</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.093340931660196802</v>
+      </c>
+      <c r="B83">
+        <v>0.87421035571668504</v>
+      </c>
+      <c r="C83">
+        <v>0.37571078495629673</v>
+      </c>
+      <c r="D83">
+        <v>0.95332953416990152</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.13602602977752037</v>
+      </c>
+      <c r="B84">
+        <v>0.85118194867705788</v>
+      </c>
+      <c r="C84">
+        <v>0.31146097230519965</v>
+      </c>
+      <c r="D84">
+        <v>0.93217626505248741</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.10347804357209386</v>
+      </c>
+      <c r="B85">
+        <v>0.86882264337134341</v>
+      </c>
+      <c r="C85">
+        <v>0.35740367723279404</v>
+      </c>
+      <c r="D85">
+        <v>0.94826097821395305</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.074576909227797958</v>
+      </c>
+      <c r="B86">
+        <v>0.90288902995866005</v>
+      </c>
+      <c r="C86">
+        <v>0.38516899745380623</v>
+      </c>
+      <c r="D86">
+        <v>0.96271154538610104</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.096189384979302184</v>
+      </c>
+      <c r="B87">
+        <v>0.88688376634171706</v>
+      </c>
+      <c r="C87">
+        <v>0.35033355270957317</v>
+      </c>
+      <c r="D87">
+        <v>0.95191938765452955</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.069799031159989533</v>
+      </c>
+      <c r="B88">
+        <v>0.90416858896614882</v>
+      </c>
+      <c r="C88">
+        <v>0.40294075078151975</v>
+      </c>
+      <c r="D88">
+        <v>0.96510048442000529</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.067553836114477489</v>
+      </c>
+      <c r="B89">
+        <v>0.91001554563554521</v>
+      </c>
+      <c r="C89">
+        <v>0.4036304241036226</v>
+      </c>
+      <c r="D89">
+        <v>0.9662230819427613</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.082035515991373376</v>
+      </c>
+      <c r="B90">
+        <v>0.88086045998476992</v>
+      </c>
+      <c r="C90">
+        <v>0.41310333215830203</v>
+      </c>
+      <c r="D90">
+        <v>0.95899141926306619</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.1063579361283809</v>
+      </c>
+      <c r="B91">
+        <v>0.87875589726716297</v>
+      </c>
+      <c r="C91">
+        <v>0.34112284713857061</v>
+      </c>
+      <c r="D91">
+        <v>0.94684228705032136</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.12015045612082853</v>
+      </c>
+      <c r="B92">
+        <v>0.85469672661598939</v>
+      </c>
+      <c r="C92">
+        <v>0.34248029420379744</v>
+      </c>
+      <c r="D92">
+        <v>0.94001363919123082</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.10699191611096158</v>
+      </c>
+      <c r="B93">
+        <v>0.88033241011041219</v>
+      </c>
+      <c r="C93">
+        <v>0.33337877894306495</v>
+      </c>
+      <c r="D93">
+        <v>0.94653394535649837</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.086627311148565672</v>
+      </c>
+      <c r="B94">
+        <v>0.88916737656588585</v>
+      </c>
+      <c r="C94">
+        <v>0.3716995588532056</v>
+      </c>
+      <c r="D94">
+        <v>0.95668916763361544</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.09983230798759482</v>
+      </c>
+      <c r="B95">
+        <v>0.87425947520877156</v>
+      </c>
+      <c r="C95">
+        <v>0.35501545238035814</v>
+      </c>
+      <c r="D95">
+        <v>0.95009731524414676</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.11378435051318839</v>
+      </c>
+      <c r="B96">
+        <v>0.87093481155505947</v>
+      </c>
+      <c r="C96">
+        <v>0.33416883219086901</v>
+      </c>
+      <c r="D96">
+        <v>0.9431599406491803</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.096984894919200093</v>
+      </c>
+      <c r="B97">
+        <v>0.88682073963100905</v>
+      </c>
+      <c r="C97">
+        <v>0.3486396221993438</v>
+      </c>
+      <c r="D97">
+        <v>0.95151058386305687</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.069128120311624464</v>
+      </c>
+      <c r="B98">
+        <v>0.90211006636615876</v>
+      </c>
+      <c r="C98">
+        <v>0.40326270083512811</v>
+      </c>
+      <c r="D98">
+        <v>0.96543593984418785</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.095824132008342527</v>
+      </c>
+      <c r="B99">
+        <v>0.87082596772980203</v>
+      </c>
+      <c r="C99">
+        <v>0.37075072852780544</v>
+      </c>
+      <c r="D99">
+        <v>0.95209815769026296</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.057613908872901673</v>
+      </c>
+      <c r="B100">
+        <v>0.91337945213461191</v>
+      </c>
+      <c r="C100">
+        <v>0.42548061976200857</v>
+      </c>
+      <c r="D100">
+        <v>0.97119304556354913</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.078457184611280595</v>
+      </c>
+      <c r="B101">
+        <v>0.75816931773565188</v>
+      </c>
+      <c r="C101">
+        <v>0.65565899644884218</v>
+      </c>
+      <c r="D101">
+        <v>0.96080620280912543</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>0.07354521572997931</v>
+      </c>
+      <c r="B102">
+        <v>0.76770439335322405</v>
+      </c>
+      <c r="C102">
+        <v>0.65903924630121469</v>
+      </c>
+      <c r="D102">
+        <v>0.96328488474942076</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>0.071958653591306654</v>
+      </c>
+      <c r="B103">
+        <v>0.81213161354871366</v>
+      </c>
+      <c r="C103">
+        <v>0.58022905055103824</v>
+      </c>
+      <c r="D103">
+        <v>0.96402532304787947</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>0.11603853564547206</v>
+      </c>
+      <c r="B104">
+        <v>0.79458082118246165</v>
+      </c>
+      <c r="C104">
+        <v>0.41957118801905241</v>
+      </c>
+      <c r="D104">
+        <v>0.94203211303789336</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>0.06957253240279164</v>
+      </c>
+      <c r="B105">
+        <v>0.85124486090691498</v>
+      </c>
+      <c r="C105">
+        <v>0.4851588766594972</v>
+      </c>
+      <c r="D105">
+        <v>0.96521834958088693</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>0.069535105874860698</v>
+      </c>
+      <c r="B106">
+        <v>0.83726551917476599</v>
+      </c>
+      <c r="C106">
+        <v>0.53587711500692092</v>
+      </c>
+      <c r="D106">
+        <v>0.96525455960657358</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>0.075528962885882761</v>
+      </c>
+      <c r="B107">
+        <v>0.77060995376449182</v>
+      </c>
+      <c r="C107">
+        <v>0.64780496089868844</v>
+      </c>
+      <c r="D107">
+        <v>0.96225592213992783</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>0.053929342319721588</v>
+      </c>
+      <c r="B108">
+        <v>0.8282153131846931</v>
+      </c>
+      <c r="C108">
+        <v>0.63930176223232138</v>
+      </c>
+      <c r="D108">
+        <v>0.97303532884013921</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>0.031823617831320018</v>
+      </c>
+      <c r="B109">
+        <v>0.8614429891064429</v>
+      </c>
+      <c r="C109">
+        <v>0.74898199050927183</v>
+      </c>
+      <c r="D109">
+        <v>0.98408819108433998</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>0.01514133356455389</v>
+      </c>
+      <c r="B110">
+        <v>0.94499630346015462</v>
+      </c>
+      <c r="C110">
+        <v>0.71029310426135328</v>
+      </c>
+      <c r="D110">
+        <v>0.99242933321772309</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>0.019270177142943885</v>
+      </c>
+      <c r="B111">
+        <v>0.94052671860799886</v>
+      </c>
+      <c r="C111">
+        <v>0.65780318372452595</v>
+      </c>
+      <c r="D111">
+        <v>0.99036491142852789</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>0.045521062317877406</v>
+      </c>
+      <c r="B112">
+        <v>0.8526552602638644</v>
+      </c>
+      <c r="C112">
+        <v>0.6622569529443092</v>
+      </c>
+      <c r="D112">
+        <v>0.97723946884106128</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>0.023182853017935476</v>
+      </c>
+      <c r="B113">
+        <v>0.82208778898435797</v>
+      </c>
+      <c r="C113">
+        <v>0.85470244520730632</v>
+      </c>
+      <c r="D113">
+        <v>0.98840857349103228</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>0.02007392139649096</v>
+      </c>
+      <c r="B114">
+        <v>0.87584738534343853</v>
+      </c>
+      <c r="C114">
+        <v>0.82047874867165949</v>
+      </c>
+      <c r="D114">
+        <v>0.98996303930175444</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>0.027715183174570654</v>
+      </c>
+      <c r="B115">
+        <v>0.8783373890166738</v>
+      </c>
+      <c r="C115">
+        <v>0.75051752209811773</v>
+      </c>
+      <c r="D115">
+        <v>0.98614240841271461</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>0.02029376942430073</v>
+      </c>
+      <c r="B116">
+        <v>0.91704768199500064</v>
+      </c>
+      <c r="C116">
+        <v>0.73630128867121902</v>
+      </c>
+      <c r="D116">
+        <v>0.98985311528784947</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>0.03497457934874712</v>
+      </c>
+      <c r="B117">
+        <v>0.912593469030343</v>
+      </c>
+      <c r="C117">
+        <v>0.57144499040437491</v>
+      </c>
+      <c r="D117">
+        <v>0.98251271032562648</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>0.041122755408469693</v>
+      </c>
+      <c r="B118">
+        <v>0.8167175581976065</v>
+      </c>
+      <c r="C118">
+        <v>0.74364357673146042</v>
+      </c>
+      <c r="D118">
+        <v>0.97943862229576517</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>0.058750866851595002</v>
+      </c>
+      <c r="B119">
+        <v>0.84526395428114809</v>
+      </c>
+      <c r="C119">
+        <v>0.58452305405943839</v>
+      </c>
+      <c r="D119">
+        <v>0.97063612459546922</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>0.080748260951306633</v>
+      </c>
+      <c r="B120">
+        <v>0.83863444570244206</v>
+      </c>
+      <c r="C120">
+        <v>0.47279979032196173</v>
+      </c>
+      <c r="D120">
+        <v>0.95964033146774264</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>0.068591922890125889</v>
+      </c>
+      <c r="B121">
+        <v>0.72952513563341881</v>
+      </c>
+      <c r="C121">
+        <v>0.70777309372750297</v>
+      </c>
+      <c r="D121">
+        <v>0.96584517419874383</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>0.16721747251957755</v>
+      </c>
+      <c r="B122">
+        <v>0.73318499924665625</v>
+      </c>
+      <c r="C122">
+        <v>0.4195490018895191</v>
+      </c>
+      <c r="D122">
+        <v>0.91822196145423385</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <v>0.16258282623394182</v>
+      </c>
+      <c r="B123">
+        <v>0.74301154643018119</v>
+      </c>
+      <c r="C123">
+        <v>0.3483996721282997</v>
+      </c>
+      <c r="D123">
+        <v>0.91931560363609044</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
+        <v>0.18412330129267485</v>
+      </c>
+      <c r="B124">
+        <v>0.74476436406301794</v>
+      </c>
+      <c r="C124">
+        <v>0.38607934876750011</v>
+      </c>
+      <c r="D124">
+        <v>0.91014191188205118</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125">
+        <v>0.083662776851631315</v>
+      </c>
+      <c r="B125">
+        <v>0.71952940010125899</v>
+      </c>
+      <c r="C125">
+        <v>0.67168193076863658</v>
+      </c>
+      <c r="D125">
+        <v>0.95847556296472713</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126">
+        <v>0.050066690204385859</v>
+      </c>
+      <c r="B126">
+        <v>0.68189634585453118</v>
+      </c>
+      <c r="C126">
+        <v>0.79682482168449453</v>
+      </c>
+      <c r="D126">
+        <v>0.97497973140847094</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127">
+        <v>0.052693666970150863</v>
+      </c>
+      <c r="B127">
+        <v>0.74338061588109094</v>
+      </c>
+      <c r="C127">
+        <v>0.752749391875704</v>
+      </c>
+      <c r="D127">
+        <v>0.97367274614036636</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128">
+        <v>0.11188483003551497</v>
+      </c>
+      <c r="B128">
+        <v>0.74266968153265622</v>
+      </c>
+      <c r="C128">
+        <v>0.5389973216567937</v>
+      </c>
+      <c r="D128">
+        <v>0.9446156773211567</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129">
+        <v>0.2000182000182</v>
+      </c>
+      <c r="B129">
+        <v>0.68231681442926506</v>
+      </c>
+      <c r="C129">
+        <v>0.44425672744972156</v>
+      </c>
+      <c r="D129">
+        <v>0.90558503579336902</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130">
+        <v>0.15297096053611317</v>
+      </c>
+      <c r="B130">
+        <v>0.73243174615589046</v>
+      </c>
+      <c r="C130">
+        <v>0.46067548959544419</v>
+      </c>
+      <c r="D130">
+        <v>0.92481178125258534</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131">
+        <v>0.095690317912540124</v>
+      </c>
+      <c r="B131">
+        <v>0.73433352900739401</v>
+      </c>
+      <c r="C131">
+        <v>0.60142265727708155</v>
+      </c>
+      <c r="D131">
+        <v>0.9524804413693303</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132">
+        <v>0.031107179713990858</v>
+      </c>
+      <c r="B132">
+        <v>0.79527580773980799</v>
+      </c>
+      <c r="C132">
+        <v>0.81817740729445876</v>
+      </c>
+      <c r="D132">
+        <v>0.9844464101430046</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133">
+        <v>0.073717678174502671</v>
+      </c>
+      <c r="B133">
+        <v>0.71001628001572747</v>
+      </c>
+      <c r="C133">
+        <v>0.7004242104426136</v>
+      </c>
+      <c r="D133">
+        <v>0.96327246466522243</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134">
+        <v>0.019843932503292826</v>
+      </c>
+      <c r="B134">
+        <v>0.54265416631731345</v>
+      </c>
+      <c r="C134">
+        <v>0.93792480285422697</v>
+      </c>
+      <c r="D134">
+        <v>0.99007803374835346</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135">
+        <v>0.1073125674668091</v>
+      </c>
+      <c r="B135">
+        <v>0.65224616885808406</v>
+      </c>
+      <c r="C135">
+        <v>0.67188394584206723</v>
+      </c>
+      <c r="D135">
+        <v>0.94792257870664043</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136">
+        <v>0.072824383403448004</v>
+      </c>
+      <c r="B136">
+        <v>0.79115254776874666</v>
+      </c>
+      <c r="C136">
+        <v>0.59613162287466326</v>
+      </c>
+      <c r="D136">
+        <v>0.96359880667601538</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137">
+        <v>0.066462755402279972</v>
+      </c>
+      <c r="B137">
+        <v>0.80817009136917783</v>
+      </c>
+      <c r="C137">
+        <v>0.59549540293878966</v>
+      </c>
+      <c r="D137">
+        <v>0.96676862229886007</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138">
+        <v>0.07240420806234954</v>
+      </c>
+      <c r="B138">
+        <v>0.81793845433288437</v>
+      </c>
+      <c r="C138">
+        <v>0.5436157803781313</v>
+      </c>
+      <c r="D138">
+        <v>0.96379789596882526</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139">
+        <v>0.074399498968464484</v>
+      </c>
+      <c r="B139">
+        <v>0.7252222091324716</v>
+      </c>
+      <c r="C139">
+        <v>0.6894172883222135</v>
+      </c>
+      <c r="D139">
+        <v>0.96291486557291162</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140">
+        <v>0.087888512509657082</v>
+      </c>
+      <c r="B140">
+        <v>0.72355878419764963</v>
+      </c>
+      <c r="C140">
+        <v>0.64904839907905532</v>
+      </c>
+      <c r="D140">
+        <v>0.95629345694419687</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141">
+        <v>0.1265264196850755</v>
+      </c>
+      <c r="B141">
+        <v>0.72268276240045715</v>
+      </c>
+      <c r="C141">
+        <v>0.45352074815838056</v>
+      </c>
+      <c r="D141">
+        <v>0.93675974383693705</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142">
+        <v>0.24712529475664363</v>
+      </c>
+      <c r="B142">
+        <v>0.6810616341131791</v>
+      </c>
+      <c r="C142">
+        <v>0.30755978274619672</v>
+      </c>
+      <c r="D142">
+        <v>0.87889614188944531</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143">
+        <v>0.18701590005678589</v>
+      </c>
+      <c r="B143">
+        <v>0.71811829966843777</v>
+      </c>
+      <c r="C143">
+        <v>0.37017129333231436</v>
+      </c>
+      <c r="D143">
+        <v>0.90706369487033889</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144">
+        <v>0.099131079078539672</v>
+      </c>
+      <c r="B144">
+        <v>0.81997088891388559</v>
+      </c>
+      <c r="C144">
+        <v>0.41526705230323796</v>
+      </c>
+      <c r="D144">
+        <v>0.9504344604607301</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145">
+        <v>0.10729062949441309</v>
+      </c>
+      <c r="B145">
+        <v>0.8056349943070561</v>
+      </c>
+      <c r="C145">
+        <v>0.40757319458117347</v>
+      </c>
+      <c r="D145">
+        <v>0.94635468525279354</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146">
+        <v>0.14172902404075788</v>
+      </c>
+      <c r="B146">
+        <v>0.76109139853871288</v>
+      </c>
+      <c r="C146">
+        <v>0.3667162454547051</v>
+      </c>
+      <c r="D146">
+        <v>0.92913548797962109</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147">
+        <v>0.18343589825987758</v>
+      </c>
+      <c r="B147">
+        <v>0.67232197622353329</v>
+      </c>
+      <c r="C147">
+        <v>0.43510819266180578</v>
+      </c>
+      <c r="D147">
+        <v>0.90870516466624895</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148">
+        <v>0.11155857121101879</v>
+      </c>
+      <c r="B148">
+        <v>0.75259701746587948</v>
+      </c>
+      <c r="C148">
+        <v>0.48342804334799072</v>
+      </c>
+      <c r="D148">
+        <v>0.94422071439449073</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149">
+        <v>0.14517737111246903</v>
+      </c>
+      <c r="B149">
+        <v>0.72745459785233446</v>
+      </c>
+      <c r="C149">
+        <v>0.423873111308952</v>
+      </c>
+      <c r="D149">
+        <v>0.92741667470706146</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150">
+        <v>0.23791797774800136</v>
+      </c>
+      <c r="B150">
+        <v>0.69413978384006914</v>
+      </c>
+      <c r="C150">
+        <v>0.30223262220650765</v>
+      </c>
+      <c r="D150">
+        <v>0.88302739344484416</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151">
+        <v>0.17724477405371528</v>
+      </c>
+      <c r="B151">
+        <v>0.737557469360414</v>
+      </c>
+      <c r="C151">
+        <v>0.32719530670589286</v>
+      </c>
+      <c r="D151">
+        <v>0.91141243085386514</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152">
+        <v>0.20149610602541335</v>
+      </c>
+      <c r="B152">
+        <v>0.72193131369085961</v>
+      </c>
+      <c r="C152">
+        <v>0.3061201092108366</v>
+      </c>
+      <c r="D152">
+        <v>0.89964817598032532</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153">
+        <v>0.18727505141681902</v>
+      </c>
+      <c r="B153">
+        <v>0.69199282493307013</v>
+      </c>
+      <c r="C153">
+        <v>0.334113101376523</v>
+      </c>
+      <c r="D153">
+        <v>0.90641484327391841</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154">
+        <v>0.21494582536647547</v>
+      </c>
+      <c r="B154">
+        <v>0.66632333964260315</v>
+      </c>
+      <c r="C154">
+        <v>0.38008494269266313</v>
+      </c>
+      <c r="D154">
+        <v>0.8941351346818287</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155">
+        <v>0.21925022436158931</v>
+      </c>
+      <c r="B155">
+        <v>0.67337433395413815</v>
+      </c>
+      <c r="C155">
+        <v>0.38325586475406781</v>
+      </c>
+      <c r="D155">
+        <v>0.89274870142231655</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156">
+        <v>0.044428484556186962</v>
+      </c>
+      <c r="B156">
+        <v>0.73637401722233498</v>
+      </c>
+      <c r="C156">
+        <v>0.79074582420820172</v>
+      </c>
+      <c r="D156">
+        <v>0.97778575772190646</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157">
+        <v>0.03414373237382088</v>
+      </c>
+      <c r="B157">
+        <v>0.72007010390190385</v>
+      </c>
+      <c r="C157">
+        <v>0.85034269410346353</v>
+      </c>
+      <c r="D157">
+        <v>0.98292813381308952</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158">
+        <v>0.066689759158889916</v>
+      </c>
+      <c r="B158">
+        <v>0.72455788701486457</v>
+      </c>
+      <c r="C158">
+        <v>0.71276968831185383</v>
+      </c>
+      <c r="D158">
+        <v>0.96665512042055501</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159">
+        <v>0.12291169451073987</v>
+      </c>
+      <c r="B159">
+        <v>0.77138232751315994</v>
+      </c>
+      <c r="C159">
+        <v>0.40749347329401087</v>
+      </c>
+      <c r="D159">
+        <v>0.9385441527446301</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160">
+        <v>0.14041145615913755</v>
+      </c>
+      <c r="B160">
+        <v>0.74863106119065259</v>
+      </c>
+      <c r="C160">
+        <v>0.38679560077023939</v>
+      </c>
+      <c r="D160">
+        <v>0.92979427192043118</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161">
+        <v>0.030324094571858674</v>
+      </c>
+      <c r="B161">
+        <v>0.92868715244798794</v>
+      </c>
+      <c r="C161">
+        <v>0.54698808181633118</v>
+      </c>
+      <c r="D161">
+        <v>0.9848379527140706</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162">
+        <v>0.048325262308313154</v>
+      </c>
+      <c r="B162">
+        <v>0.81718885003309782</v>
+      </c>
+      <c r="C162">
+        <v>0.70136268458054662</v>
+      </c>
+      <c r="D162">
+        <v>0.97583736884584338</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163">
+        <v>0.04676600507685235</v>
+      </c>
+      <c r="B163">
+        <v>0.78805707609463638</v>
+      </c>
+      <c r="C163">
+        <v>0.74277512846794025</v>
+      </c>
+      <c r="D163">
+        <v>0.97661699746157382</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164">
+        <v>0.070839832400526048</v>
+      </c>
+      <c r="B164">
+        <v>0.85956622989784393</v>
+      </c>
+      <c r="C164">
+        <v>0.43407976871349552</v>
+      </c>
+      <c r="D164">
+        <v>0.96458008379973692</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165">
+        <v>0.097208136128014433</v>
+      </c>
+      <c r="B165">
+        <v>0.81487521299299548</v>
+      </c>
+      <c r="C165">
+        <v>0.50597029687399653</v>
+      </c>
+      <c r="D165">
+        <v>0.9514021924223075</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166">
+        <v>0.12127920211431989</v>
+      </c>
+      <c r="B166">
+        <v>0.78405034909829185</v>
+      </c>
+      <c r="C166">
+        <v>0.46686629791478629</v>
+      </c>
+      <c r="D166">
+        <v>0.93939255100925345</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167">
+        <v>0.1008983572895277</v>
+      </c>
+      <c r="B167">
+        <v>0.77014561916015556</v>
+      </c>
+      <c r="C167">
+        <v>0.55844925582103677</v>
+      </c>
+      <c r="D167">
+        <v>0.94959074834588186</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168">
+        <v>0.18195401877383396</v>
+      </c>
+      <c r="B168">
+        <v>0.74851743139599736</v>
+      </c>
+      <c r="C168">
+        <v>0.32404279552421983</v>
+      </c>
+      <c r="D168">
+        <v>0.90939577833186669</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169">
+        <v>0.16215537448375933</v>
+      </c>
+      <c r="B169">
+        <v>0.79783522346240821</v>
+      </c>
+      <c r="C169">
+        <v>0.36887826046141864</v>
+      </c>
+      <c r="D169">
+        <v>0.91917744327332462</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170">
+        <v>0.15235511101652835</v>
+      </c>
+      <c r="B170">
+        <v>0.72885644855455867</v>
+      </c>
+      <c r="C170">
+        <v>0.45403834199682042</v>
+      </c>
+      <c r="D170">
+        <v>0.92406363055969343</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171">
+        <v>0.11465145246674674</v>
+      </c>
+      <c r="B171">
+        <v>0.82016280343471248</v>
+      </c>
+      <c r="C171">
+        <v>0.45489188282525006</v>
+      </c>
+      <c r="D171">
+        <v>0.94268910242151938</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172">
+        <v>0.14594181436010129</v>
+      </c>
+      <c r="B172">
+        <v>0.77140709770971005</v>
+      </c>
+      <c r="C172">
+        <v>0.42422619680592849</v>
+      </c>
+      <c r="D172">
+        <v>0.92710340398201674</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173">
+        <v>0.10123456790123456</v>
+      </c>
+      <c r="B173">
+        <v>0.81488896985658865</v>
+      </c>
+      <c r="C173">
+        <v>0.49207530856099879</v>
+      </c>
+      <c r="D173">
+        <v>0.94938806049917157</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174">
+        <v>0.19943593875906523</v>
+      </c>
+      <c r="B174">
+        <v>0.72754632350475612</v>
+      </c>
+      <c r="C174">
+        <v>0.36497913362481915</v>
+      </c>
+      <c r="D174">
+        <v>0.90095627292012703</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175">
+        <v>0.17909353090348562</v>
+      </c>
+      <c r="B175">
+        <v>0.77507795130199586</v>
+      </c>
+      <c r="C175">
+        <v>0.36000888851783019</v>
+      </c>
+      <c r="D175">
+        <v>0.91079025298482297</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176">
+        <v>0.16901435392054848</v>
+      </c>
+      <c r="B176">
+        <v>0.77800922415479246</v>
+      </c>
+      <c r="C176">
+        <v>0.37162777303270417</v>
+      </c>
+      <c r="D176">
+        <v>0.91574786782559037</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177">
+        <v>0.22234825161227598</v>
+      </c>
+      <c r="B177">
+        <v>0.75726748091859231</v>
+      </c>
+      <c r="C177">
+        <v>0.30944565016809572</v>
+      </c>
+      <c r="D177">
+        <v>0.89077032764040576</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178">
+        <v>0.13662920789617622</v>
+      </c>
+      <c r="B178">
+        <v>0.80754778250400594</v>
+      </c>
+      <c r="C178">
+        <v>0.41792231934195168</v>
+      </c>
+      <c r="D178">
+        <v>0.93176274454555008</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179">
+        <v>0.10845098898136604</v>
+      </c>
+      <c r="B179">
+        <v>0.7219821230580703</v>
+      </c>
+      <c r="C179">
+        <v>0.57072020166284065</v>
+      </c>
+      <c r="D179">
+        <v>0.94584751378733256</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180">
+        <v>0.13867598703664277</v>
+      </c>
+      <c r="B180">
+        <v>0.76017191189041466</v>
+      </c>
+      <c r="C180">
+        <v>0.38968891226697916</v>
+      </c>
+      <c r="D180">
+        <v>0.93070931800439993</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181">
+        <v>0.030324094571858674</v>
+      </c>
+      <c r="B181">
+        <v>0.92868715244798794</v>
+      </c>
+      <c r="C181">
+        <v>0.54698808181633118</v>
+      </c>
+      <c r="D181">
+        <v>0.9848379527140706</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182">
+        <v>0.048325262308313154</v>
+      </c>
+      <c r="B182">
+        <v>0.81718885003309782</v>
+      </c>
+      <c r="C182">
+        <v>0.70136268458054662</v>
+      </c>
+      <c r="D182">
+        <v>0.97583736884584338</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183">
+        <v>0.04676600507685235</v>
+      </c>
+      <c r="B183">
+        <v>0.78805707609463638</v>
+      </c>
+      <c r="C183">
+        <v>0.74277512846794025</v>
+      </c>
+      <c r="D183">
+        <v>0.97661699746157382</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184">
+        <v>0.070839832400526048</v>
+      </c>
+      <c r="B184">
+        <v>0.85956622989784393</v>
+      </c>
+      <c r="C184">
+        <v>0.43407976871349552</v>
+      </c>
+      <c r="D184">
+        <v>0.96458008379973692</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185">
+        <v>0.097208136128014433</v>
+      </c>
+      <c r="B185">
+        <v>0.81487521299299548</v>
+      </c>
+      <c r="C185">
+        <v>0.50597029687399653</v>
+      </c>
+      <c r="D185">
+        <v>0.9514021924223075</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186">
+        <v>0.12127920211431989</v>
+      </c>
+      <c r="B186">
+        <v>0.78405034909829185</v>
+      </c>
+      <c r="C186">
+        <v>0.46686629791478629</v>
+      </c>
+      <c r="D186">
+        <v>0.93939255100925345</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187">
+        <v>0.1008983572895277</v>
+      </c>
+      <c r="B187">
+        <v>0.77014561916015556</v>
+      </c>
+      <c r="C187">
+        <v>0.55844925582103677</v>
+      </c>
+      <c r="D187">
+        <v>0.94959074834588186</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188">
+        <v>0.18195401877383396</v>
+      </c>
+      <c r="B188">
+        <v>0.74851743139599736</v>
+      </c>
+      <c r="C188">
+        <v>0.32404279552421983</v>
+      </c>
+      <c r="D188">
+        <v>0.90939577833186669</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189">
+        <v>0.16215537448375933</v>
+      </c>
+      <c r="B189">
+        <v>0.79783522346240821</v>
+      </c>
+      <c r="C189">
+        <v>0.36887826046141864</v>
+      </c>
+      <c r="D189">
+        <v>0.91917744327332462</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190">
+        <v>0.15235511101652835</v>
+      </c>
+      <c r="B190">
+        <v>0.72885644855455867</v>
+      </c>
+      <c r="C190">
+        <v>0.45403834199682042</v>
+      </c>
+      <c r="D190">
+        <v>0.92406363055969343</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191">
+        <v>0.11465145246674674</v>
+      </c>
+      <c r="B191">
+        <v>0.82016280343471248</v>
+      </c>
+      <c r="C191">
+        <v>0.45489188282525006</v>
+      </c>
+      <c r="D191">
+        <v>0.94268910242151938</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192">
+        <v>0.14594181436010129</v>
+      </c>
+      <c r="B192">
+        <v>0.77140709770971005</v>
+      </c>
+      <c r="C192">
+        <v>0.42422619680592849</v>
+      </c>
+      <c r="D192">
+        <v>0.92710340398201674</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193">
+        <v>0.10123456790123456</v>
+      </c>
+      <c r="B193">
+        <v>0.81488896985658865</v>
+      </c>
+      <c r="C193">
+        <v>0.49207530856099879</v>
+      </c>
+      <c r="D193">
+        <v>0.94938806049917157</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194">
+        <v>0.19943593875906523</v>
+      </c>
+      <c r="B194">
+        <v>0.72754632350475612</v>
+      </c>
+      <c r="C194">
+        <v>0.36497913362481915</v>
+      </c>
+      <c r="D194">
+        <v>0.90095627292012703</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195">
+        <v>0.17909353090348562</v>
+      </c>
+      <c r="B195">
+        <v>0.77507795130199586</v>
+      </c>
+      <c r="C195">
+        <v>0.36000888851783019</v>
+      </c>
+      <c r="D195">
+        <v>0.91079025298482297</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196">
+        <v>0.16901435392054848</v>
+      </c>
+      <c r="B196">
+        <v>0.77800922415479246</v>
+      </c>
+      <c r="C196">
+        <v>0.37162777303270417</v>
+      </c>
+      <c r="D196">
+        <v>0.91574786782559037</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197">
+        <v>0.22234825161227598</v>
+      </c>
+      <c r="B197">
+        <v>0.75726748091859231</v>
+      </c>
+      <c r="C197">
+        <v>0.30944565016809572</v>
+      </c>
+      <c r="D197">
+        <v>0.89077032764040576</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198">
+        <v>0.13662920789617622</v>
+      </c>
+      <c r="B198">
+        <v>0.80754778250400594</v>
+      </c>
+      <c r="C198">
+        <v>0.41792231934195168</v>
+      </c>
+      <c r="D198">
+        <v>0.93176274454555008</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199">
+        <v>0.10845098898136604</v>
+      </c>
+      <c r="B199">
+        <v>0.7219821230580703</v>
+      </c>
+      <c r="C199">
+        <v>0.57072020166284065</v>
+      </c>
+      <c r="D199">
+        <v>0.94584751378733256</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200">
+        <v>0.13867598703664277</v>
+      </c>
+      <c r="B200">
+        <v>0.76017191189041466</v>
+      </c>
+      <c r="C200">
+        <v>0.38968891226697916</v>
+      </c>
+      <c r="D200">
+        <v>0.93070931800439993</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201">
+        <v>0.061420451893002194</v>
+      </c>
+      <c r="B201">
+        <v>0.86462714407529406</v>
+      </c>
+      <c r="C201">
+        <v>0.54555704328658705</v>
+      </c>
+      <c r="D201">
+        <v>0.96929366431694752</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202">
+        <v>0.04167619919164188</v>
+      </c>
+      <c r="B202">
+        <v>0.88525409489691609</v>
+      </c>
+      <c r="C202">
+        <v>0.6300084635900427</v>
+      </c>
+      <c r="D202">
+        <v>0.97916190040417905</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203">
+        <v>0.044852457748385352</v>
+      </c>
+      <c r="B203">
+        <v>0.84040546918590464</v>
+      </c>
+      <c r="C203">
+        <v>0.72620673253621004</v>
+      </c>
+      <c r="D203">
+        <v>0.97758988539531522</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204">
+        <v>0.025149692234628027</v>
+      </c>
+      <c r="B204">
+        <v>0.87326127051934332</v>
+      </c>
+      <c r="C204">
+        <v>0.80207603591854959</v>
+      </c>
+      <c r="D204">
+        <v>0.98742515388268592</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205">
+        <v>0.045269794397915966</v>
+      </c>
+      <c r="B205">
+        <v>0.82157458025196517</v>
+      </c>
+      <c r="C205">
+        <v>0.74569808059020226</v>
+      </c>
+      <c r="D205">
+        <v>0.97739621606179661</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206">
+        <v>0.058442145439935714</v>
+      </c>
+      <c r="B206">
+        <v>0.84593630171428558</v>
+      </c>
+      <c r="C206">
+        <v>0.62930514554568429</v>
+      </c>
+      <c r="D206">
+        <v>0.97078562340966923</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207">
+        <v>0.084709194159531667</v>
+      </c>
+      <c r="B207">
+        <v>0.84309975978430807</v>
+      </c>
+      <c r="C207">
+        <v>0.48627091098418845</v>
+      </c>
+      <c r="D207">
+        <v>0.95768436535071055</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208">
+        <v>0.046434638769670966</v>
+      </c>
+      <c r="B208">
+        <v>0.82380279679991508</v>
+      </c>
+      <c r="C208">
+        <v>0.73275954571700641</v>
+      </c>
+      <c r="D208">
+        <v>0.97679460240820215</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209">
+        <v>0.075349650349650354</v>
+      </c>
+      <c r="B209">
+        <v>0.86850898143672284</v>
+      </c>
+      <c r="C209">
+        <v>0.47968865485063789</v>
+      </c>
+      <c r="D209">
+        <v>0.96232517482517488</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210">
+        <v>0.036933149263721557</v>
+      </c>
+      <c r="B210">
+        <v>0.8828161823187487</v>
+      </c>
+      <c r="C210">
+        <v>0.66716743556947544</v>
+      </c>
+      <c r="D210">
+        <v>0.98153342536813915</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211">
+        <v>0.046674367762322547</v>
+      </c>
+      <c r="B211">
+        <v>0.88002679345784907</v>
+      </c>
+      <c r="C211">
+        <v>0.5861326286892361</v>
+      </c>
+      <c r="D211">
+        <v>0.97666599838977086</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212">
+        <v>0.056686660471403229</v>
+      </c>
+      <c r="B212">
+        <v>0.86614829358033407</v>
+      </c>
+      <c r="C212">
+        <v>0.59606094579541646</v>
+      </c>
+      <c r="D212">
+        <v>0.971664715560973</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213">
+        <v>0.1149357112665494</v>
+      </c>
+      <c r="B213">
+        <v>0.77993339389817506</v>
+      </c>
+      <c r="C213">
+        <v>0.5271481892464035</v>
+      </c>
+      <c r="D213">
+        <v>0.94285668430118674</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214">
+        <v>0.050348014271509617</v>
+      </c>
+      <c r="B214">
+        <v>0.86968883102856254</v>
+      </c>
+      <c r="C214">
+        <v>0.58906691131800903</v>
+      </c>
+      <c r="D214">
+        <v>0.97482989218381388</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215">
+        <v>0.039558068274998921</v>
+      </c>
+      <c r="B215">
+        <v>0.85677948373774382</v>
+      </c>
+      <c r="C215">
+        <v>0.72632339351467623</v>
+      </c>
+      <c r="D215">
+        <v>0.98023535166084019</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216">
+        <v>0.053299503199802305</v>
+      </c>
+      <c r="B216">
+        <v>0.82925073680982375</v>
+      </c>
+      <c r="C216">
+        <v>0.70226691030051591</v>
+      </c>
+      <c r="D216">
+        <v>0.97342410091662335</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217">
+        <v>0.055647176411794105</v>
+      </c>
+      <c r="B217">
+        <v>0.86372810042074677</v>
+      </c>
+      <c r="C217">
+        <v>0.58419236057281843</v>
+      </c>
+      <c r="D217">
+        <v>0.97217641179410297</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218">
+        <v>0.080458144796380082</v>
+      </c>
+      <c r="B218">
+        <v>0.83914242156108088</v>
+      </c>
+      <c r="C218">
+        <v>0.50335573302489933</v>
+      </c>
+      <c r="D218">
+        <v>0.95984162895927605</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219">
+        <v>0.11952007505085963</v>
+      </c>
+      <c r="B219">
+        <v>0.80182018564687563</v>
+      </c>
+      <c r="C219">
+        <v>0.46457752208141279</v>
+      </c>
+      <c r="D219">
+        <v>0.9409696968099871</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220">
+        <v>0.069445099657978543</v>
+      </c>
+      <c r="B220">
+        <v>0.83316201406807455</v>
+      </c>
+      <c r="C220">
+        <v>0.62524732544795014</v>
+      </c>
+      <c r="D220">
+        <v>0.9653907202107167</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221">
+        <v>0.10935013262599469</v>
+      </c>
+      <c r="B221">
+        <v>0.70905389552417319</v>
+      </c>
+      <c r="C221">
+        <v>0.67611277984814522</v>
+      </c>
+      <c r="D221">
+        <v>0.94824270557029167</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222">
+        <v>0.10732993094359161</v>
+      </c>
+      <c r="B222">
+        <v>0.78769557835184478</v>
+      </c>
+      <c r="C222">
+        <v>0.48818959756687724</v>
+      </c>
+      <c r="D222">
+        <v>0.94654123996709683</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223">
+        <v>0.24262041267470752</v>
+      </c>
+      <c r="B223">
+        <v>0.74637176640080116</v>
+      </c>
+      <c r="C223">
+        <v>0.26667548035316252</v>
+      </c>
+      <c r="D223">
+        <v>0.88258964417950914</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224">
+        <v>0.1348706981165215</v>
+      </c>
+      <c r="B224">
+        <v>0.72414949681013818</v>
+      </c>
+      <c r="C224">
+        <v>0.56549817934198576</v>
+      </c>
+      <c r="D224">
+        <v>0.93436797225580037</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225">
+        <v>0.25321083890126206</v>
+      </c>
+      <c r="B225">
+        <v>0.71679985119594425</v>
+      </c>
+      <c r="C225">
+        <v>0.35559986612720729</v>
+      </c>
+      <c r="D225">
+        <v>0.88220737441227426</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226">
+        <v>0.31129120171545283</v>
+      </c>
+      <c r="B226">
+        <v>0.71936824526326204</v>
+      </c>
+      <c r="C226">
+        <v>0.24701186545285481</v>
+      </c>
+      <c r="D226">
+        <v>0.854618515390559</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227">
+        <v>0.32704228957198506</v>
+      </c>
+      <c r="B227">
+        <v>0.69319632263130881</v>
+      </c>
+      <c r="C227">
+        <v>0.24819845012878383</v>
+      </c>
+      <c r="D227">
+        <v>0.84884864167313223</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228">
+        <v>0.1948810214166406</v>
+      </c>
+      <c r="B228">
+        <v>0.77426676438430564</v>
+      </c>
+      <c r="C228">
+        <v>0.30009974960609476</v>
+      </c>
+      <c r="D228">
+        <v>0.90358381369191298</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229">
+        <v>0.24827588720730182</v>
+      </c>
+      <c r="B229">
+        <v>0.72726831683885973</v>
+      </c>
+      <c r="C229">
+        <v>0.27707740112323664</v>
+      </c>
+      <c r="D229">
+        <v>0.87989015007921934</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230">
+        <v>0.14608790523690773</v>
+      </c>
+      <c r="B230">
+        <v>0.75039568334580675</v>
+      </c>
+      <c r="C230">
+        <v>0.46760207730016889</v>
+      </c>
+      <c r="D230">
+        <v>0.92813365890828492</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231">
+        <v>0.1071065663386713</v>
+      </c>
+      <c r="B231">
+        <v>0.75284339748744755</v>
+      </c>
+      <c r="C231">
+        <v>0.54272389992065273</v>
+      </c>
+      <c r="D231">
+        <v>0.94675541835487809</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232">
+        <v>0.17044192760381971</v>
+      </c>
+      <c r="B232">
+        <v>0.71676701749301441</v>
+      </c>
+      <c r="C232">
+        <v>0.45600379917405859</v>
+      </c>
+      <c r="D232">
+        <v>0.91794480008496737</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233">
+        <v>0.15771646754526419</v>
+      </c>
+      <c r="B233">
+        <v>0.67362475600512173</v>
+      </c>
+      <c r="C233">
+        <v>0.62226023177399181</v>
+      </c>
+      <c r="D233">
+        <v>0.92979716075232755</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234">
+        <v>0.13217330487525475</v>
+      </c>
+      <c r="B234">
+        <v>0.69608585406612644</v>
+      </c>
+      <c r="C234">
+        <v>0.65207809657723548</v>
+      </c>
+      <c r="D234">
+        <v>0.93954266099112893</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235">
+        <v>0.3186081290391497</v>
+      </c>
+      <c r="B235">
+        <v>0.69600465809509038</v>
+      </c>
+      <c r="C235">
+        <v>0.34483415819682972</v>
+      </c>
+      <c r="D235">
+        <v>0.8623965176520858</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236">
+        <v>0.1710727436948517</v>
+      </c>
+      <c r="B236">
+        <v>0.72570717776818183</v>
+      </c>
+      <c r="C236">
+        <v>0.49886036033166525</v>
+      </c>
+      <c r="D236">
+        <v>0.91874667083535977</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237">
+        <v>0.081603862311116687</v>
+      </c>
+      <c r="B237">
+        <v>0.76791197840698844</v>
+      </c>
+      <c r="C237">
+        <v>0.62236536175464352</v>
+      </c>
+      <c r="D237">
+        <v>0.95930953525473561</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238">
+        <v>0.1657804900154074</v>
+      </c>
+      <c r="B238">
+        <v>0.73126566488146527</v>
+      </c>
+      <c r="C238">
+        <v>0.48110690591192684</v>
+      </c>
+      <c r="D238">
+        <v>0.92000996948732661</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239">
+        <v>0.082276080084299263</v>
+      </c>
+      <c r="B239">
+        <v>0.7029680113507164</v>
+      </c>
+      <c r="C239">
+        <v>0.73929832298407161</v>
+      </c>
+      <c r="D239">
+        <v>0.96050872263201037</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240">
+        <v>0.085792819292505318</v>
+      </c>
+      <c r="B240">
+        <v>0.72956939155588452</v>
+      </c>
+      <c r="C240">
+        <v>0.66625851225833377</v>
+      </c>
+      <c r="D240">
+        <v>0.95766177156433963</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241">
+        <v>0.11835801393728224</v>
+      </c>
+      <c r="B241">
+        <v>0.71378125558855976</v>
+      </c>
+      <c r="C241">
+        <v>0.58190677148778169</v>
+      </c>
+      <c r="D241">
+        <v>0.94109683507549369</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242">
+        <v>0.18119918699186993</v>
+      </c>
+      <c r="B242">
+        <v>0.71956754814014712</v>
+      </c>
+      <c r="C242">
+        <v>0.44434175195400039</v>
+      </c>
+      <c r="D242">
+        <v>0.91047343922513291</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243">
+        <v>0.1192283148730571</v>
+      </c>
+      <c r="B243">
+        <v>0.75248795319050588</v>
+      </c>
+      <c r="C243">
+        <v>0.52151758290410877</v>
+      </c>
+      <c r="D243">
+        <v>0.94038584256347146</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244">
+        <v>0.052252252252252253</v>
+      </c>
+      <c r="B244">
+        <v>0.79230248999021735</v>
+      </c>
+      <c r="C244">
+        <v>0.72384781931820941</v>
+      </c>
+      <c r="D244">
+        <v>0.97387387387387392</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245">
+        <v>0.13484279354479689</v>
+      </c>
+      <c r="B245">
+        <v>0.7257794462919569</v>
+      </c>
+      <c r="C245">
+        <v>0.53066206274799033</v>
+      </c>
+      <c r="D245">
+        <v>0.93268062511593397</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246">
+        <v>0.19624474789915966</v>
+      </c>
+      <c r="B246">
+        <v>0.72281137725329048</v>
+      </c>
+      <c r="C246">
+        <v>0.40724896963775015</v>
+      </c>
+      <c r="D246">
+        <v>0.90257102841136461</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247">
+        <v>0.1352887475336455</v>
+      </c>
+      <c r="B247">
+        <v>0.79382864912444162</v>
+      </c>
+      <c r="C247">
+        <v>0.42517165031413245</v>
+      </c>
+      <c r="D247">
+        <v>0.93248323860568749</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248">
+        <v>0.11356605298381191</v>
+      </c>
+      <c r="B248">
+        <v>0.78847329419983758</v>
+      </c>
+      <c r="C248">
+        <v>0.49801699691840423</v>
+      </c>
+      <c r="D248">
+        <v>0.94323801887348369</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249">
+        <v>0.091625418060200664</v>
+      </c>
+      <c r="B249">
+        <v>0.84712196574603993</v>
+      </c>
+      <c r="C249">
+        <v>0.44742295265153631</v>
+      </c>
+      <c r="D249">
+        <v>0.95418729096989963</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250">
+        <v>0.10905511811023622</v>
+      </c>
+      <c r="B250">
+        <v>0.81790358940168484</v>
+      </c>
+      <c r="C250">
+        <v>0.43169495899609256</v>
+      </c>
+      <c r="D250">
+        <v>0.9454767792455695</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251">
+        <v>0.12653491436100131</v>
+      </c>
+      <c r="B251">
+        <v>0.8246143338832852</v>
+      </c>
+      <c r="C251">
+        <v>0.44496974472773804</v>
+      </c>
+      <c r="D251">
+        <v>0.93683794466403159</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252">
+        <v>0.25721362992974672</v>
+      </c>
+      <c r="B252">
+        <v>0.72527846968006937</v>
+      </c>
+      <c r="C252">
+        <v>0.32725964383845835</v>
+      </c>
+      <c r="D252">
+        <v>0.87625367390843256</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253">
+        <v>0.075511825745536124</v>
+      </c>
+      <c r="B253">
+        <v>0.76860294626317005</v>
+      </c>
+      <c r="C253">
+        <v>0.66542977976187556</v>
+      </c>
+      <c r="D253">
+        <v>0.96225447425550259</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254">
+        <v>0.14547286289976852</v>
+      </c>
+      <c r="B254">
+        <v>0.7049490916531852</v>
+      </c>
+      <c r="C254">
+        <v>0.52966851081505129</v>
+      </c>
+      <c r="D254">
+        <v>0.92754937265997883</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255">
+        <v>0.16093545384263422</v>
+      </c>
+      <c r="B255">
+        <v>0.74760843320492498</v>
+      </c>
+      <c r="C255">
+        <v>0.45659651015432628</v>
+      </c>
+      <c r="D255">
+        <v>0.91994774985142769</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256">
+        <v>0.18784308819850182</v>
+      </c>
+      <c r="B256">
+        <v>0.74738830242249266</v>
+      </c>
+      <c r="C256">
+        <v>0.3882157004161006</v>
+      </c>
+      <c r="D256">
+        <v>0.9066131706623104</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257">
+        <v>0.10668970205052677</v>
+      </c>
+      <c r="B257">
+        <v>0.82126149265824133</v>
+      </c>
+      <c r="C257">
+        <v>0.44374679674230172</v>
+      </c>
+      <c r="D257">
+        <v>0.94665514897473657</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258">
+        <v>0.060686966024240022</v>
+      </c>
+      <c r="B258">
+        <v>0.89411306847094918</v>
+      </c>
+      <c r="C258">
+        <v>0.43340594486482598</v>
+      </c>
+      <c r="D258">
+        <v>0.96965651698787991</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259">
+        <v>0.16267995414223427</v>
+      </c>
+      <c r="B259">
+        <v>0.8224002705849438</v>
+      </c>
+      <c r="C259">
+        <v>0.30340238035505462</v>
+      </c>
+      <c r="D259">
+        <v>0.9187038759835614</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260">
+        <v>0.10006241298190025</v>
+      </c>
+      <c r="B260">
+        <v>0.83691410229133745</v>
+      </c>
+      <c r="C260">
+        <v>0.41701643057123872</v>
+      </c>
+      <c r="D260">
+        <v>0.94997199417478839</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261">
+        <v>0.097557195987828249</v>
+      </c>
+      <c r="B261">
+        <v>0.78551954163725557</v>
+      </c>
+      <c r="C261">
+        <v>0.49458724720628311</v>
+      </c>
+      <c r="D261">
+        <v>0.95122140200608585</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262">
+        <v>0.089372620589505083</v>
+      </c>
+      <c r="B262">
+        <v>0.81623257411189687</v>
+      </c>
+      <c r="C262">
+        <v>0.4790351820268135</v>
+      </c>
+      <c r="D262">
+        <v>0.95531368970524744</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263">
+        <v>0.10787605787605788</v>
+      </c>
+      <c r="B263">
+        <v>0.81704523447279942</v>
+      </c>
+      <c r="C263">
+        <v>0.40226420999876278</v>
+      </c>
+      <c r="D263">
+        <v>0.9460619710619711</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264">
+        <v>0.11160842371033454</v>
+      </c>
+      <c r="B264">
+        <v>0.79472285960807265</v>
+      </c>
+      <c r="C264">
+        <v>0.40984477246355278</v>
+      </c>
+      <c r="D264">
+        <v>0.94419578814483274</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265">
+        <v>0.13023860641287463</v>
+      </c>
+      <c r="B265">
+        <v>0.77799872977691464</v>
+      </c>
+      <c r="C265">
+        <v>0.37729243700185977</v>
+      </c>
+      <c r="D265">
+        <v>0.93488069679356267</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266">
+        <v>0.216767122836487</v>
+      </c>
+      <c r="B266">
+        <v>0.76020884992879523</v>
+      </c>
+      <c r="C266">
+        <v>0.32227846773287122</v>
+      </c>
+      <c r="D266">
+        <v>0.89272529903551101</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267">
+        <v>0.11610488681553992</v>
+      </c>
+      <c r="B267">
+        <v>0.79559240503751205</v>
+      </c>
+      <c r="C267">
+        <v>0.39431670474855168</v>
+      </c>
+      <c r="D267">
+        <v>0.94195392959110846</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268">
+        <v>0.056952236453665477</v>
+      </c>
+      <c r="B268">
+        <v>0.89091826472895019</v>
+      </c>
+      <c r="C268">
+        <v>0.44235037062941079</v>
+      </c>
+      <c r="D268">
+        <v>0.97152388177316729</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269">
+        <v>0.051711513820245289</v>
+      </c>
+      <c r="B269">
+        <v>0.89700647667430122</v>
+      </c>
+      <c r="C269">
+        <v>0.45985781992348479</v>
+      </c>
+      <c r="D269">
+        <v>0.97414424308987735</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270">
+        <v>0.046189246554574181</v>
+      </c>
+      <c r="B270">
+        <v>0.9107783504753918</v>
+      </c>
+      <c r="C270">
+        <v>0.45245369295286764</v>
+      </c>
+      <c r="D270">
+        <v>0.97690537672271294</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271">
+        <v>0.043085006125718597</v>
+      </c>
+      <c r="B271">
+        <v>0.89217512264540166</v>
+      </c>
+      <c r="C271">
+        <v>0.56829301858633352</v>
+      </c>
+      <c r="D271">
+        <v>0.97845749693714068</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272">
+        <v>0.052254454794944144</v>
+      </c>
+      <c r="B272">
+        <v>0.89621948186481781</v>
+      </c>
+      <c r="C272">
+        <v>0.46423011602850717</v>
+      </c>
+      <c r="D272">
+        <v>0.9738727726025278</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273">
+        <v>0.036780715396578539</v>
+      </c>
+      <c r="B273">
+        <v>0.80737776780469472</v>
+      </c>
+      <c r="C273">
+        <v>0.78837247215228201</v>
+      </c>
+      <c r="D273">
+        <v>0.98160964230171077</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274">
+        <v>0.040144850019648085</v>
+      </c>
+      <c r="B274">
+        <v>0.79123443677203242</v>
+      </c>
+      <c r="C274">
+        <v>0.78795511186280109</v>
+      </c>
+      <c r="D274">
+        <v>0.97992757499017602</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275">
+        <v>0.04319136745607334</v>
+      </c>
+      <c r="B275">
+        <v>0.91362712685599567</v>
+      </c>
+      <c r="C275">
+        <v>0.45930558722840942</v>
+      </c>
+      <c r="D275">
+        <v>0.97840431627196334</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276">
+        <v>0.070067350375019127</v>
+      </c>
+      <c r="B276">
+        <v>0.86300837064942637</v>
+      </c>
+      <c r="C276">
+        <v>0.43407273266056307</v>
+      </c>
+      <c r="D276">
+        <v>0.96496632481249034</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277">
+        <v>0.034546628809573134</v>
+      </c>
+      <c r="B277">
+        <v>0.74387302311956149</v>
+      </c>
+      <c r="C277">
+        <v>0.83394180921878514</v>
+      </c>
+      <c r="D277">
+        <v>0.98272668559521348</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278">
+        <v>0.17338098332250379</v>
+      </c>
+      <c r="B278">
+        <v>0.71942169308497284</v>
+      </c>
+      <c r="C278">
+        <v>0.42076525567466044</v>
+      </c>
+      <c r="D278">
+        <v>0.91350203354751758</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279">
+        <v>0.13816842779378799</v>
+      </c>
+      <c r="B279">
+        <v>0.7260684950958276</v>
+      </c>
+      <c r="C279">
+        <v>0.49826484505639168</v>
+      </c>
+      <c r="D279">
+        <v>0.93093713309851644</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280">
+        <v>0.10841845597943159</v>
+      </c>
+      <c r="B280">
+        <v>0.77936130915294144</v>
+      </c>
+      <c r="C280">
+        <v>0.43041664378530581</v>
+      </c>
+      <c r="D280">
+        <v>0.94579077201028428</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281">
+        <v>0.097557195987828249</v>
+      </c>
+      <c r="B281">
+        <v>0.78551954163725557</v>
+      </c>
+      <c r="C281">
+        <v>0.49458724720628311</v>
+      </c>
+      <c r="D281">
+        <v>0.95122140200608585</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282">
+        <v>0.089372620589505083</v>
+      </c>
+      <c r="B282">
+        <v>0.81623257411189687</v>
+      </c>
+      <c r="C282">
+        <v>0.4790351820268135</v>
+      </c>
+      <c r="D282">
+        <v>0.95531368970524744</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283">
+        <v>0.10787605787605788</v>
+      </c>
+      <c r="B283">
+        <v>0.81704523447279942</v>
+      </c>
+      <c r="C283">
+        <v>0.40226420999876278</v>
+      </c>
+      <c r="D283">
+        <v>0.9460619710619711</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284">
+        <v>0.11160842371033454</v>
+      </c>
+      <c r="B284">
+        <v>0.79472285960807265</v>
+      </c>
+      <c r="C284">
+        <v>0.40984477246355278</v>
+      </c>
+      <c r="D284">
+        <v>0.94419578814483274</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285">
+        <v>0.13023860641287463</v>
+      </c>
+      <c r="B285">
+        <v>0.77799872977691464</v>
+      </c>
+      <c r="C285">
+        <v>0.37729243700185977</v>
+      </c>
+      <c r="D285">
+        <v>0.93488069679356267</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286">
+        <v>0.216767122836487</v>
+      </c>
+      <c r="B286">
+        <v>0.76020884992879523</v>
+      </c>
+      <c r="C286">
+        <v>0.32227846773287122</v>
+      </c>
+      <c r="D286">
+        <v>0.89272529903551101</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287">
+        <v>0.11610488681553992</v>
+      </c>
+      <c r="B287">
+        <v>0.79559240503751205</v>
+      </c>
+      <c r="C287">
+        <v>0.39431670474855168</v>
+      </c>
+      <c r="D287">
+        <v>0.94195392959110846</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288">
+        <v>0.056952236453665477</v>
+      </c>
+      <c r="B288">
+        <v>0.89091826472895019</v>
+      </c>
+      <c r="C288">
+        <v>0.44235037062941079</v>
+      </c>
+      <c r="D288">
+        <v>0.97152388177316729</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289">
+        <v>0.051711513820245289</v>
+      </c>
+      <c r="B289">
+        <v>0.89700647667430122</v>
+      </c>
+      <c r="C289">
+        <v>0.45985781992348479</v>
+      </c>
+      <c r="D289">
+        <v>0.97414424308987735</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290">
+        <v>0.046189246554574181</v>
+      </c>
+      <c r="B290">
+        <v>0.9107783504753918</v>
+      </c>
+      <c r="C290">
+        <v>0.45245369295286764</v>
+      </c>
+      <c r="D290">
+        <v>0.97690537672271294</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291">
+        <v>0.043085006125718597</v>
+      </c>
+      <c r="B291">
+        <v>0.89217512264540166</v>
+      </c>
+      <c r="C291">
+        <v>0.56829301858633352</v>
+      </c>
+      <c r="D291">
+        <v>0.97845749693714068</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292">
+        <v>0.052254454794944144</v>
+      </c>
+      <c r="B292">
+        <v>0.89621948186481781</v>
+      </c>
+      <c r="C292">
+        <v>0.46423011602850717</v>
+      </c>
+      <c r="D292">
+        <v>0.9738727726025278</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293">
+        <v>0.036780715396578539</v>
+      </c>
+      <c r="B293">
+        <v>0.80737776780469472</v>
+      </c>
+      <c r="C293">
+        <v>0.78837247215228201</v>
+      </c>
+      <c r="D293">
+        <v>0.98160964230171077</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294">
+        <v>0.040144850019648085</v>
+      </c>
+      <c r="B294">
+        <v>0.79123443677203242</v>
+      </c>
+      <c r="C294">
+        <v>0.78795511186280109</v>
+      </c>
+      <c r="D294">
+        <v>0.97992757499017602</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295">
+        <v>0.04319136745607334</v>
+      </c>
+      <c r="B295">
+        <v>0.91362712685599567</v>
+      </c>
+      <c r="C295">
+        <v>0.45930558722840942</v>
+      </c>
+      <c r="D295">
+        <v>0.97840431627196334</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296">
+        <v>0.070067350375019127</v>
+      </c>
+      <c r="B296">
+        <v>0.86300837064942637</v>
+      </c>
+      <c r="C296">
+        <v>0.43407273266056307</v>
+      </c>
+      <c r="D296">
+        <v>0.96496632481249034</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297">
+        <v>0.034546628809573134</v>
+      </c>
+      <c r="B297">
+        <v>0.74387302311956149</v>
+      </c>
+      <c r="C297">
+        <v>0.83394180921878514</v>
+      </c>
+      <c r="D297">
+        <v>0.98272668559521348</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298">
+        <v>0.17338098332250379</v>
+      </c>
+      <c r="B298">
+        <v>0.71942169308497284</v>
+      </c>
+      <c r="C298">
+        <v>0.42076525567466044</v>
+      </c>
+      <c r="D298">
+        <v>0.91350203354751758</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299">
+        <v>0.13816842779378799</v>
+      </c>
+      <c r="B299">
+        <v>0.7260684950958276</v>
+      </c>
+      <c r="C299">
+        <v>0.49826484505639168</v>
+      </c>
+      <c r="D299">
+        <v>0.93093713309851644</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300">
+        <v>0.10841845597943159</v>
+      </c>
+      <c r="B300">
+        <v>0.77936130915294144</v>
+      </c>
+      <c r="C300">
+        <v>0.43041664378530581</v>
+      </c>
+      <c r="D300">
+        <v>0.94579077201028428</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301">
+        <v>0.060885802469135802</v>
+      </c>
+      <c r="B301">
+        <v>0.87151814835309338</v>
+      </c>
+      <c r="C301">
+        <v>0.50258628737997257</v>
+      </c>
+      <c r="D301">
+        <v>0.96955709876543206</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302">
+        <v>0.048917718560074798</v>
+      </c>
+      <c r="B302">
+        <v>0.85808920551011392</v>
+      </c>
+      <c r="C302">
+        <v>0.66362672475876561</v>
+      </c>
+      <c r="D302">
+        <v>0.97558165809568331</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303">
+        <v>0.049460069927906192</v>
+      </c>
+      <c r="B303">
+        <v>0.86120485807243352</v>
+      </c>
+      <c r="C303">
+        <v>0.65975682488299026</v>
+      </c>
+      <c r="D303">
+        <v>0.97528543581175164</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304">
+        <v>0.017891529632351078</v>
+      </c>
+      <c r="B304">
+        <v>0.87684161805722138</v>
+      </c>
+      <c r="C304">
+        <v>0.84309349953900159</v>
+      </c>
+      <c r="D304">
+        <v>0.99105423518382441</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305">
+        <v>0.043912994604316552</v>
+      </c>
+      <c r="B305">
+        <v>0.90887239210127346</v>
+      </c>
+      <c r="C305">
+        <v>0.54771038198562383</v>
+      </c>
+      <c r="D305">
+        <v>0.97805099670263795</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306">
+        <v>0.014541058435395672</v>
+      </c>
+      <c r="B306">
+        <v>0.91794717632375533</v>
+      </c>
+      <c r="C306">
+        <v>0.81518876669019569</v>
+      </c>
+      <c r="D306">
+        <v>0.99272947078230211</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307">
+        <v>0.016291072200605276</v>
+      </c>
+      <c r="B307">
+        <v>0.93020033088484178</v>
+      </c>
+      <c r="C307">
+        <v>0.76420120743339837</v>
+      </c>
+      <c r="D307">
+        <v>0.99185446389969745</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308">
+        <v>0.082447853743031402</v>
+      </c>
+      <c r="B308">
+        <v>0.84292563679792809</v>
+      </c>
+      <c r="C308">
+        <v>0.50653327206275944</v>
+      </c>
+      <c r="D308">
+        <v>0.95885855615881377</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309">
+        <v>0.011399820223349635</v>
+      </c>
+      <c r="B309">
+        <v>0.93177884685058954</v>
+      </c>
+      <c r="C309">
+        <v>0.82653995135242242</v>
+      </c>
+      <c r="D309">
+        <v>0.99430008988832508</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310">
+        <v>0.011449488263971849</v>
+      </c>
+      <c r="B310">
+        <v>0.92457433421914215</v>
+      </c>
+      <c r="C310">
+        <v>0.84478401274301407</v>
+      </c>
+      <c r="D310">
+        <v>0.99427525586801413</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311">
+        <v>0.022330217337453225</v>
+      </c>
+      <c r="B311">
+        <v>0.91104983663423211</v>
+      </c>
+      <c r="C311">
+        <v>0.75328602048417892</v>
+      </c>
+      <c r="D311">
+        <v>0.98883489133127334</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312">
+        <v>0.026444379570161537</v>
+      </c>
+      <c r="B312">
+        <v>0.89735329837138644</v>
+      </c>
+      <c r="C312">
+        <v>0.74059111126187349</v>
+      </c>
+      <c r="D312">
+        <v>0.98677781021491928</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313">
+        <v>0.011554161184765373</v>
+      </c>
+      <c r="B313">
+        <v>0.89698939503501318</v>
+      </c>
+      <c r="C313">
+        <v>0.8807795976417172</v>
+      </c>
+      <c r="D313">
+        <v>0.9942229194076172</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314">
+        <v>0.019769097478743267</v>
+      </c>
+      <c r="B314">
+        <v>0.90841729106898106</v>
+      </c>
+      <c r="C314">
+        <v>0.76997213023029865</v>
+      </c>
+      <c r="D314">
+        <v>0.99011545126062839</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315">
+        <v>0.017359575409111018</v>
+      </c>
+      <c r="B315">
+        <v>0.88168737214333159</v>
+      </c>
+      <c r="C315">
+        <v>0.84105089481878026</v>
+      </c>
+      <c r="D315">
+        <v>0.99132021229544443</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316">
+        <v>0.016384349908437807</v>
+      </c>
+      <c r="B316">
+        <v>0.88843875192668476</v>
+      </c>
+      <c r="C316">
+        <v>0.84450695577020607</v>
+      </c>
+      <c r="D316">
+        <v>0.99180782504578102</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317">
+        <v>0.03086983359481495</v>
+      </c>
+      <c r="B317">
+        <v>0.8908718044630537</v>
+      </c>
+      <c r="C317">
+        <v>0.71870033143804368</v>
+      </c>
+      <c r="D317">
+        <v>0.98456508320259251</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318">
+        <v>0.022636054421768706</v>
+      </c>
+      <c r="B318">
+        <v>0.87622230578626048</v>
+      </c>
+      <c r="C318">
+        <v>0.80767065622734358</v>
+      </c>
+      <c r="D318">
+        <v>0.98868197278911552</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319">
+        <v>0.01702518845375988</v>
+      </c>
+      <c r="B319">
+        <v>0.88763968912170832</v>
+      </c>
+      <c r="C319">
+        <v>0.83899121887552019</v>
+      </c>
+      <c r="D319">
+        <v>0.99148740577312011</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320">
+        <v>0.097002649645893058</v>
+      </c>
+      <c r="B320">
+        <v>0.8584894748902685</v>
+      </c>
+      <c r="C320">
+        <v>0.38274108181891875</v>
+      </c>
+      <c r="D320">
+        <v>0.95156105841369265</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321">
+        <v>0.11676327930912103</v>
+      </c>
+      <c r="B321">
+        <v>0.7712349139337874</v>
+      </c>
+      <c r="C321">
+        <v>0.54744053989933472</v>
+      </c>
+      <c r="D321">
+        <v>0.94216057415513232</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322">
+        <v>0.12545497620124485</v>
+      </c>
+      <c r="B322">
+        <v>0.80709660923321613</v>
+      </c>
+      <c r="C322">
+        <v>0.42464753470843397</v>
+      </c>
+      <c r="D322">
+        <v>0.93758264952294812</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323">
+        <v>0.088570985900945115</v>
+      </c>
+      <c r="B323">
+        <v>0.83041071744393857</v>
+      </c>
+      <c r="C323">
+        <v>0.45815481313529682</v>
+      </c>
+      <c r="D323">
+        <v>0.95581014573422785</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324">
+        <v>0.10602832253482339</v>
+      </c>
+      <c r="B324">
+        <v>0.76581541235876571</v>
+      </c>
+      <c r="C324">
+        <v>0.56779603217401409</v>
+      </c>
+      <c r="D324">
+        <v>0.94783619119402041</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325">
+        <v>0.099683912053177157</v>
+      </c>
+      <c r="B325">
+        <v>0.80626952877427382</v>
+      </c>
+      <c r="C325">
+        <v>0.54478569836577728</v>
+      </c>
+      <c r="D325">
+        <v>0.95049892313174988</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326">
+        <v>0.081727160885477518</v>
+      </c>
+      <c r="B326">
+        <v>0.85635123251122591</v>
+      </c>
+      <c r="C326">
+        <v>0.43172693767423975</v>
+      </c>
+      <c r="D326">
+        <v>0.95915705284442754</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327">
+        <v>0.10893726462753744</v>
+      </c>
+      <c r="B327">
+        <v>0.84592076773552238</v>
+      </c>
+      <c r="C327">
+        <v>0.37612260696287086</v>
+      </c>
+      <c r="D327">
+        <v>0.94559940669980158</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328">
+        <v>0.12680478639240506</v>
+      </c>
+      <c r="B328">
+        <v>0.79913506610834928</v>
+      </c>
+      <c r="C328">
+        <v>0.40607010106803026</v>
+      </c>
+      <c r="D328">
+        <v>0.9370700927390998</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329">
+        <v>0.073848510355087507</v>
+      </c>
+      <c r="B329">
+        <v>0.85247097170689068</v>
+      </c>
+      <c r="C329">
+        <v>0.53634477669659719</v>
+      </c>
+      <c r="D329">
+        <v>0.96320298124730852</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330">
+        <v>0.043329015544041449</v>
+      </c>
+      <c r="B330">
+        <v>0.88014023539862862</v>
+      </c>
+      <c r="C330">
+        <v>0.63983073220086462</v>
+      </c>
+      <c r="D330">
+        <v>0.97833549222797922</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331">
+        <v>0.097785892576499944</v>
+      </c>
+      <c r="B331">
+        <v>0.80050696384097686</v>
+      </c>
+      <c r="C331">
+        <v>0.53079428875512213</v>
+      </c>
+      <c r="D331">
+        <v>0.95124058837426695</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332">
+        <v>0.09126588488502746</v>
+      </c>
+      <c r="B332">
+        <v>0.83012627216458557</v>
+      </c>
+      <c r="C332">
+        <v>0.52446011512020363</v>
+      </c>
+      <c r="D332">
+        <v>0.95440925899550033</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333">
+        <v>0.1099921716461584</v>
+      </c>
+      <c r="B333">
+        <v>0.76513121707022502</v>
+      </c>
+      <c r="C333">
+        <v>0.56079195337950505</v>
+      </c>
+      <c r="D333">
+        <v>0.94575381473909292</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334">
+        <v>0.14309871063200169</v>
+      </c>
+      <c r="B334">
+        <v>0.75993992591874049</v>
+      </c>
+      <c r="C334">
+        <v>0.50353965417459845</v>
+      </c>
+      <c r="D334">
+        <v>0.93009330555303904</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335">
+        <v>0.043561899967638706</v>
+      </c>
+      <c r="B335">
+        <v>0.86946590116614364</v>
+      </c>
+      <c r="C335">
+        <v>0.67032643729233554</v>
+      </c>
+      <c r="D335">
+        <v>0.9782190500161807</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336">
+        <v>0.13632059073854305</v>
+      </c>
+      <c r="B336">
+        <v>0.79767628284597181</v>
+      </c>
+      <c r="C336">
+        <v>0.40232125302509508</v>
+      </c>
+      <c r="D336">
+        <v>0.93223928427294489</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337">
+        <v>0.088052210727319544</v>
+      </c>
+      <c r="B337">
+        <v>0.84878517319090052</v>
+      </c>
+      <c r="C337">
+        <v>0.44464912108734622</v>
+      </c>
+      <c r="D337">
+        <v>0.95601577042020269</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338">
+        <v>0.18208836077864496</v>
+      </c>
+      <c r="B338">
+        <v>0.77174337955524508</v>
+      </c>
+      <c r="C338">
+        <v>0.38194978615869934</v>
+      </c>
+      <c r="D338">
+        <v>0.91095511122857553</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339">
+        <v>0.22397537749250276</v>
+      </c>
+      <c r="B339">
+        <v>0.75031391800557901</v>
+      </c>
+      <c r="C339">
+        <v>0.35169918167427905</v>
+      </c>
+      <c r="D339">
+        <v>0.89196743305098125</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340">
+        <v>0.10341156578553685</v>
+      </c>
+      <c r="B340">
+        <v>0.81557130292820135</v>
+      </c>
+      <c r="C340">
+        <v>0.5167003851840708</v>
+      </c>
+      <c r="D340">
+        <v>0.94855398688626491</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341">
+        <v>0.18751701738690729</v>
+      </c>
+      <c r="B341">
+        <v>0.7189096566112394</v>
+      </c>
+      <c r="C341">
+        <v>0.34159935440975986</v>
+      </c>
+      <c r="D341">
+        <v>0.90634521633150522</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342">
+        <v>0.17719886248222627</v>
+      </c>
+      <c r="B342">
+        <v>0.7326830166351993</v>
+      </c>
+      <c r="C342">
+        <v>0.35093317224398524</v>
+      </c>
+      <c r="D342">
+        <v>0.91154275848060118</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343">
+        <v>0.16711292795094532</v>
+      </c>
+      <c r="B343">
+        <v>0.72198980240459609</v>
+      </c>
+      <c r="C343">
+        <v>0.39106299955951268</v>
+      </c>
+      <c r="D343">
+        <v>0.91653892011582339</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344">
+        <v>0.16851250510741705</v>
+      </c>
+      <c r="B344">
+        <v>0.73061615379408151</v>
+      </c>
+      <c r="C344">
+        <v>0.35366798613648809</v>
+      </c>
+      <c r="D344">
+        <v>0.91580826218791</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345">
+        <v>0.11854676916353812</v>
+      </c>
+      <c r="B345">
+        <v>0.7976223590515078</v>
+      </c>
+      <c r="C345">
+        <v>0.38763756025477392</v>
+      </c>
+      <c r="D345">
+        <v>0.94072661541823088</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346">
+        <v>0.04985006274548151</v>
+      </c>
+      <c r="B346">
+        <v>0.78698956373248741</v>
+      </c>
+      <c r="C346">
+        <v>0.73790260081680459</v>
+      </c>
+      <c r="D346">
+        <v>0.97507496862725929</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347">
+        <v>0.074552683896620273</v>
+      </c>
+      <c r="B347">
+        <v>0.69116309549725707</v>
+      </c>
+      <c r="C347">
+        <v>0.70591384440835703</v>
+      </c>
+      <c r="D347">
+        <v>0.96273559842148315</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348">
+        <v>0.06466942148760331</v>
+      </c>
+      <c r="B348">
+        <v>0.75475783716881473</v>
+      </c>
+      <c r="C348">
+        <v>0.69349122388159812</v>
+      </c>
+      <c r="D348">
+        <v>0.96766528925619832</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349">
+        <v>0.048381786339754811</v>
+      </c>
+      <c r="B349">
+        <v>0.81241577537632803</v>
+      </c>
+      <c r="C349">
+        <v>0.70598133567250754</v>
+      </c>
+      <c r="D349">
+        <v>0.97580910683012267</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350">
+        <v>0.14942454643476627</v>
+      </c>
+      <c r="B350">
+        <v>0.80650678618131566</v>
+      </c>
+      <c r="C350">
+        <v>0.33588551167085368</v>
+      </c>
+      <c r="D350">
+        <v>0.92545441168044429</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351">
+        <v>0.063434563980415498</v>
+      </c>
+      <c r="B351">
+        <v>0.87411985305300355</v>
+      </c>
+      <c r="C351">
+        <v>0.47835123953925335</v>
+      </c>
+      <c r="D351">
+        <v>0.96828271800979215</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352">
+        <v>0.049434674023219119</v>
+      </c>
+      <c r="B352">
+        <v>0.90119189292494528</v>
+      </c>
+      <c r="C352">
+        <v>0.4751358669921138</v>
+      </c>
+      <c r="D352">
+        <v>0.9752826629883905</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353">
+        <v>0.14258309591642923</v>
+      </c>
+      <c r="B353">
+        <v>0.74944905913009729</v>
+      </c>
+      <c r="C353">
+        <v>0.44646464731527252</v>
+      </c>
+      <c r="D353">
+        <v>0.92896426875593552</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354">
+        <v>0.085330244072745726</v>
+      </c>
+      <c r="B354">
+        <v>0.82098659268566809</v>
+      </c>
+      <c r="C354">
+        <v>0.49609196697533864</v>
+      </c>
+      <c r="D354">
+        <v>0.9573384045168094</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355">
+        <v>0.075280862217098593</v>
+      </c>
+      <c r="B355">
+        <v>0.8351713186213926</v>
+      </c>
+      <c r="C355">
+        <v>0.50885474601611769</v>
+      </c>
+      <c r="D355">
+        <v>0.96235956889145069</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356">
+        <v>0.073031096563011461</v>
+      </c>
+      <c r="B356">
+        <v>0.82876796082009152</v>
+      </c>
+      <c r="C356">
+        <v>0.52842855963634527</v>
+      </c>
+      <c r="D356">
+        <v>0.96348445171849439</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357">
+        <v>0.062889294080068159</v>
+      </c>
+      <c r="B357">
+        <v>0.84283736880903803</v>
+      </c>
+      <c r="C357">
+        <v>0.5554982915300245</v>
+      </c>
+      <c r="D357">
+        <v>0.96855535295996575</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358">
+        <v>0.069073094867807161</v>
+      </c>
+      <c r="B358">
+        <v>0.82962771194753293</v>
+      </c>
+      <c r="C358">
+        <v>0.55147379994146806</v>
+      </c>
+      <c r="D358">
+        <v>0.96546759979263863</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359">
+        <v>0.085295493528769681</v>
+      </c>
+      <c r="B359">
+        <v>0.82666206841917989</v>
+      </c>
+      <c r="C359">
+        <v>0.47770871762549388</v>
+      </c>
+      <c r="D359">
+        <v>0.95735225323561524</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360">
+        <v>0.060834786048984325</v>
+      </c>
+      <c r="B360">
+        <v>0.87007811396829049</v>
+      </c>
+      <c r="C360">
+        <v>0.51263832583781233</v>
+      </c>
+      <c r="D360">
+        <v>0.96958260697550758</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361">
+        <v>0.042601463088779191</v>
+      </c>
+      <c r="B361">
+        <v>0.83325251860234339</v>
+      </c>
+      <c r="C361">
+        <v>0.71475168667179334</v>
+      </c>
+      <c r="D361">
+        <v>0.97869926845561039</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362">
+        <v>0.10604269646822839</v>
+      </c>
+      <c r="B362">
+        <v>0.82577258428976519</v>
+      </c>
+      <c r="C362">
+        <v>0.39047591526154207</v>
+      </c>
+      <c r="D362">
+        <v>0.9469786517658858</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363">
+        <v>0.13354408352668215</v>
+      </c>
+      <c r="B363">
+        <v>0.81982236832929012</v>
+      </c>
+      <c r="C363">
+        <v>0.34793152276312039</v>
+      </c>
+      <c r="D363">
+        <v>0.93325889404485696</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364">
+        <v>0.069820099255583121</v>
+      </c>
+      <c r="B364">
+        <v>0.87515153078505503</v>
+      </c>
+      <c r="C364">
+        <v>0.43119924219101158</v>
+      </c>
+      <c r="D364">
+        <v>0.96508995037220846</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365">
+        <v>0.082664701358625997</v>
+      </c>
+      <c r="B365">
+        <v>0.84895779366570812</v>
+      </c>
+      <c r="C365">
+        <v>0.42068575947668141</v>
+      </c>
+      <c r="D365">
+        <v>0.95866764932068704</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366">
+        <v>0.06527464258841234</v>
+      </c>
+      <c r="B366">
+        <v>0.82560699264361648</v>
+      </c>
+      <c r="C366">
+        <v>0.577089222954418</v>
+      </c>
+      <c r="D366">
+        <v>0.96736267870579373</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367">
+        <v>0.070298034242232077</v>
+      </c>
+      <c r="B367">
+        <v>0.8669078849374241</v>
+      </c>
+      <c r="C367">
+        <v>0.43279295371922566</v>
+      </c>
+      <c r="D367">
+        <v>0.96485098287888393</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368">
+        <v>0.10833353837069114</v>
+      </c>
+      <c r="B368">
+        <v>0.8145332954211173</v>
+      </c>
+      <c r="C368">
+        <v>0.40161787658985004</v>
+      </c>
+      <c r="D368">
+        <v>0.94583323081465442</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369">
+        <v>0.054465130450121066</v>
+      </c>
+      <c r="B369">
+        <v>0.88550329118567483</v>
+      </c>
+      <c r="C369">
+        <v>0.51552168107244389</v>
+      </c>
+      <c r="D369">
+        <v>0.97276743477493954</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370">
+        <v>0.077064853309993103</v>
+      </c>
+      <c r="B370">
+        <v>0.85418048033389316</v>
+      </c>
+      <c r="C370">
+        <v>0.46017897909466804</v>
+      </c>
+      <c r="D370">
+        <v>0.96146757334500355</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371">
+        <v>0.065925983950423872</v>
+      </c>
+      <c r="B371">
+        <v>0.86949693504564907</v>
+      </c>
+      <c r="C371">
+        <v>0.46212366241725988</v>
+      </c>
+      <c r="D371">
+        <v>0.96703700802478809</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372">
+        <v>0.067870554451071347</v>
+      </c>
+      <c r="B372">
+        <v>0.84686764048332597</v>
+      </c>
+      <c r="C372">
+        <v>0.52123733202575939</v>
+      </c>
+      <c r="D372">
+        <v>0.96606472277446431</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373">
+        <v>0.093467622624331392</v>
+      </c>
+      <c r="B373">
+        <v>0.78390726788600462</v>
+      </c>
+      <c r="C373">
+        <v>0.5508678210976935</v>
+      </c>
+      <c r="D373">
+        <v>0.95326618868783441</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374">
+        <v>0.11802054154995331</v>
+      </c>
+      <c r="B374">
+        <v>0.82794562095658009</v>
+      </c>
+      <c r="C374">
+        <v>0.38249398567894294</v>
+      </c>
+      <c r="D374">
+        <v>0.94099664557180884</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375">
+        <v>0.07463788783180883</v>
+      </c>
+      <c r="B375">
+        <v>0.80808896560144083</v>
+      </c>
+      <c r="C375">
+        <v>0.61073154661176399</v>
+      </c>
+      <c r="D375">
+        <v>0.9626810560840956</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376">
+        <v>0.1236727099500152</v>
+      </c>
+      <c r="B376">
+        <v>0.80407738213641256</v>
+      </c>
+      <c r="C376">
+        <v>0.40295583084801262</v>
+      </c>
+      <c r="D376">
+        <v>0.93817975431038458</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377">
+        <v>0.14330963415619422</v>
+      </c>
+      <c r="B377">
+        <v>0.80865462613358052</v>
+      </c>
+      <c r="C377">
+        <v>0.33782010656746381</v>
+      </c>
+      <c r="D377">
+        <v>0.9284480099301512</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378">
+        <v>0.10701451095509018</v>
+      </c>
+      <c r="B378">
+        <v>0.82685601256385854</v>
+      </c>
+      <c r="C378">
+        <v>0.39833342974454944</v>
+      </c>
+      <c r="D378">
+        <v>0.94649778830246523</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379">
+        <v>0.10427640339715324</v>
+      </c>
+      <c r="B379">
+        <v>0.83607600718565644</v>
+      </c>
+      <c r="C379">
+        <v>0.39620206876184894</v>
+      </c>
+      <c r="D379">
+        <v>0.94786426429536685</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380">
+        <v>0.040100847513303992</v>
+      </c>
+      <c r="B380">
+        <v>0.91560791380495332</v>
+      </c>
+      <c r="C380">
+        <v>0.50793763642079848</v>
+      </c>
+      <c r="D380">
+        <v>0.97994957624334789</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381">
+        <v>0.042601463088779191</v>
+      </c>
+      <c r="B381">
+        <v>0.83325251860234339</v>
+      </c>
+      <c r="C381">
+        <v>0.71475168667179334</v>
+      </c>
+      <c r="D381">
+        <v>0.97869926845561039</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382">
+        <v>0.10604269646822839</v>
+      </c>
+      <c r="B382">
+        <v>0.82577258428976519</v>
+      </c>
+      <c r="C382">
+        <v>0.39047591526154207</v>
+      </c>
+      <c r="D382">
+        <v>0.9469786517658858</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383">
+        <v>0.13354408352668215</v>
+      </c>
+      <c r="B383">
+        <v>0.81982236832929012</v>
+      </c>
+      <c r="C383">
+        <v>0.34793152276312039</v>
+      </c>
+      <c r="D383">
+        <v>0.93325889404485696</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384">
+        <v>0.069820099255583121</v>
+      </c>
+      <c r="B384">
+        <v>0.87515153078505503</v>
+      </c>
+      <c r="C384">
+        <v>0.43119924219101158</v>
+      </c>
+      <c r="D384">
+        <v>0.96508995037220846</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385">
+        <v>0.082664701358625997</v>
+      </c>
+      <c r="B385">
+        <v>0.84895779366570812</v>
+      </c>
+      <c r="C385">
+        <v>0.42068575947668141</v>
+      </c>
+      <c r="D385">
+        <v>0.95866764932068704</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386">
+        <v>0.06527464258841234</v>
+      </c>
+      <c r="B386">
+        <v>0.82560699264361648</v>
+      </c>
+      <c r="C386">
+        <v>0.577089222954418</v>
+      </c>
+      <c r="D386">
+        <v>0.96736267870579373</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387">
+        <v>0.070298034242232077</v>
+      </c>
+      <c r="B387">
+        <v>0.8669078849374241</v>
+      </c>
+      <c r="C387">
+        <v>0.43279295371922566</v>
+      </c>
+      <c r="D387">
+        <v>0.96485098287888393</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388">
+        <v>0.10833353837069114</v>
+      </c>
+      <c r="B388">
+        <v>0.8145332954211173</v>
+      </c>
+      <c r="C388">
+        <v>0.40161787658985004</v>
+      </c>
+      <c r="D388">
+        <v>0.94583323081465442</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389">
+        <v>0.054465130450121066</v>
+      </c>
+      <c r="B389">
+        <v>0.88550329118567483</v>
+      </c>
+      <c r="C389">
+        <v>0.51552168107244389</v>
+      </c>
+      <c r="D389">
+        <v>0.97276743477493954</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390">
+        <v>0.077064853309993103</v>
+      </c>
+      <c r="B390">
+        <v>0.85418048033389316</v>
+      </c>
+      <c r="C390">
+        <v>0.46017897909466804</v>
+      </c>
+      <c r="D390">
+        <v>0.96146757334500355</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391">
+        <v>0.065925983950423872</v>
+      </c>
+      <c r="B391">
+        <v>0.86949693504564907</v>
+      </c>
+      <c r="C391">
+        <v>0.46212366241725988</v>
+      </c>
+      <c r="D391">
+        <v>0.96703700802478809</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392">
+        <v>0.067870554451071347</v>
+      </c>
+      <c r="B392">
+        <v>0.84686764048332597</v>
+      </c>
+      <c r="C392">
+        <v>0.52123733202575939</v>
+      </c>
+      <c r="D392">
+        <v>0.96606472277446431</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393">
+        <v>0.093467622624331392</v>
+      </c>
+      <c r="B393">
+        <v>0.78390726788600462</v>
+      </c>
+      <c r="C393">
+        <v>0.5508678210976935</v>
+      </c>
+      <c r="D393">
+        <v>0.95326618868783441</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394">
+        <v>0.11802054154995331</v>
+      </c>
+      <c r="B394">
+        <v>0.82794562095658009</v>
+      </c>
+      <c r="C394">
+        <v>0.38249398567894294</v>
+      </c>
+      <c r="D394">
+        <v>0.94099664557180884</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395">
+        <v>0.07463788783180883</v>
+      </c>
+      <c r="B395">
+        <v>0.80808896560144083</v>
+      </c>
+      <c r="C395">
+        <v>0.61073154661176399</v>
+      </c>
+      <c r="D395">
+        <v>0.9626810560840956</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396">
+        <v>0.1236727099500152</v>
+      </c>
+      <c r="B396">
+        <v>0.80407738213641256</v>
+      </c>
+      <c r="C396">
+        <v>0.40295583084801262</v>
+      </c>
+      <c r="D396">
+        <v>0.93817975431038458</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397">
+        <v>0.14330963415619422</v>
+      </c>
+      <c r="B397">
+        <v>0.80865462613358052</v>
+      </c>
+      <c r="C397">
+        <v>0.33782010656746381</v>
+      </c>
+      <c r="D397">
+        <v>0.9284480099301512</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398">
+        <v>0.10701451095509018</v>
+      </c>
+      <c r="B398">
+        <v>0.82685601256385854</v>
+      </c>
+      <c r="C398">
+        <v>0.39833342974454944</v>
+      </c>
+      <c r="D398">
+        <v>0.94649778830246523</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399">
+        <v>0.10427640339715324</v>
+      </c>
+      <c r="B399">
+        <v>0.83607600718565644</v>
+      </c>
+      <c r="C399">
+        <v>0.39620206876184894</v>
+      </c>
+      <c r="D399">
+        <v>0.94786426429536685</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400">
+        <v>0.040100847513303992</v>
+      </c>
+      <c r="B400">
+        <v>0.91560791380495332</v>
+      </c>
+      <c r="C400">
+        <v>0.50793763642079848</v>
+      </c>
+      <c r="D400">
+        <v>0.97994957624334789</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>